--- a/upload/xlsx_excel/TEMPLATE03.xlsx
+++ b/upload/xlsx_excel/TEMPLATE03.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikhsanykkbi\Documents\WEBSITES-CORE\htdocs\project-ykkbi-sipa\upload\xlsx_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" tabRatio="828" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="22560" windowHeight="9216" tabRatio="828"/>
   </bookViews>
   <sheets>
     <sheet name="OPERASIONAL" sheetId="4" r:id="rId1"/>
     <sheet name="OPERASIONAL-RINCIAN" sheetId="6" r:id="rId2"/>
-    <sheet name="INV-RENKORP" sheetId="8" r:id="rId3"/>
-    <sheet name="INV-RENKORP-RINCIAN" sheetId="7" r:id="rId4"/>
+    <sheet name="INV-RENKORP" sheetId="10" r:id="rId3"/>
+    <sheet name="INV-RENKORP-RINCIAN" sheetId="11" r:id="rId4"/>
     <sheet name="MA-KEGIATAN" sheetId="9" r:id="rId5"/>
     <sheet name="Kamus" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'INV-RENKORP-RINCIAN'!$A$8:$AB$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OPERASIONAL-RINCIAN'!$A$8:$AB$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'INV-RENKORP'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'INV-RENKORP-RINCIAN'!$1:$8</definedName>
@@ -27,12 +23,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">OPERASIONAL!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'OPERASIONAL-RINCIAN'!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="124">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -313,9 +309,6 @@
     <t>rintarif</t>
   </si>
   <si>
-    <t>rintotal</t>
-  </si>
-  <si>
     <t>rppt1nom</t>
   </si>
   <si>
@@ -347,12 +340,6 @@
   </si>
   <si>
     <t>condition</t>
-  </si>
-  <si>
-    <t>where rekmagroup in ('PEDAPATAN','BIAYA') and lvl&lt;=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">where rekmagroup in ('PEDAPATAN','BIAYA') </t>
   </si>
   <si>
     <t>where rekmagroup in ('INVESTASI','RENCANA KORPORASI') and lvl&lt;=3</t>
@@ -415,12 +402,18 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>where rekmagroup in ('PENDAPATAN','BIAYA') and lvl&lt;=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where rekmagroup in ('PENDAPATAN','BIAYA') </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="###\.###\.##"/>
     <numFmt numFmtId="165" formatCode="#,##0.00,,;\ \(#,##0.00,,\)"/>
@@ -428,7 +421,7 @@
     <numFmt numFmtId="167" formatCode="#\."/>
     <numFmt numFmtId="168" formatCode="#,##0.00,;\ \(#,##0.00,\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,24 +479,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="3"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0066FF"/>
       <name val="Consolas"/>
@@ -511,6 +486,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -770,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -922,21 +902,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -961,34 +932,13 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1007,72 +957,24 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1103,15 +1005,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1148,36 +1041,12 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1283,27 +1152,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,63 +1170,730 @@
     <xf numFmtId="164" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="72">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3ECD0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6DF89"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3ECD0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6DF89"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3ECD0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6DF89"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE3ECD0"/>
+      <color rgb="FFB6DF89"/>
       <color rgb="FF0066FF"/>
       <color rgb="FFF5F5FF"/>
       <color rgb="FFFCFDFE"/>
@@ -1387,16 +1902,11 @@
       <color rgb="FFDBFFC9"/>
       <color rgb="FFD9FFE7"/>
       <color rgb="FFEBFFF2"/>
-      <color rgb="FFDEFFCD"/>
-      <color rgb="FFAFFFAF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1445,7 +1955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1477,10 +1987,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1512,7 +2021,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1688,14 +2196,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="5" hidden="1" customWidth="1"/>
@@ -1705,35 +2211,35 @@
     <col min="7" max="7" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="13.88671875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="10" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="14" customWidth="1"/>
-    <col min="14" max="15" width="13.88671875" style="10" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" style="10" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" style="10" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" style="10" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="14" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" style="10" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" style="14" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" style="10" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" style="14" customWidth="1"/>
+    <col min="10" max="11" width="13.88671875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="13" customWidth="1"/>
+    <col min="14" max="15" width="13.88671875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="13" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" style="7" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" style="13" customWidth="1"/>
     <col min="27" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.4">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="138" t="str">
+      <c r="D1" s="106" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
       <c r="J1" s="25"/>
@@ -1754,15 +2260,15 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="14.4">
       <c r="B2" s="1">
         <v>2022</v>
       </c>
-      <c r="D2" s="139" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="D2" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
       <c r="J2" s="8"/>
@@ -1783,7 +2289,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16"/>
@@ -1809,136 +2315,134 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+    <row r="4" spans="1:26" ht="22.5" customHeight="1">
+      <c r="A4" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="152" t="s">
+      <c r="D4" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="145" t="s">
+      <c r="H4" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="165" t="s">
+      <c r="I4" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="168" t="str">
+      <c r="J4" s="131" t="str">
         <f>"TAHUN " &amp; $B$2-1</f>
         <v>TAHUN 2021</v>
       </c>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="169" t="str">
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="132" t="str">
         <f>"Tahun " &amp;$B$2</f>
         <v>Tahun 2022</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="169"/>
-    </row>
-    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="170" t="s">
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+    </row>
+    <row r="5" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A5" s="112"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="171" t="s">
+      <c r="K5" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="177" t="s">
+      <c r="L5" s="135"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="178" t="str">
-        <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA 
-TAHUN " &amp; $B$2-1</f>
-        <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA 
-TAHUN 2021</v>
-      </c>
-      <c r="P5" s="178"/>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="164" t="s">
+      <c r="O5" s="141" t="str">
+        <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN " &amp; $B$2-1</f>
+        <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN 2021</v>
+      </c>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-    </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="179" t="s">
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="113"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179" t="s">
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="179"/>
-      <c r="S6" s="164" t="s">
+      <c r="R6" s="142"/>
+      <c r="S6" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164" t="s">
+      <c r="T6" s="127"/>
+      <c r="U6" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164" t="s">
+      <c r="V6" s="127"/>
+      <c r="W6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164" t="s">
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="164"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="127"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="20"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2000,392 +2504,322 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+    <row r="8" spans="1:26">
+      <c r="A8" s="59"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="68"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="75">
+      <c r="J8" s="66"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="66"/>
+    </row>
+    <row r="9" spans="1:26" s="161" customFormat="1">
+      <c r="A9" s="160">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="74">
         <v>50000000</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="57">
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="73">
         <f>C9</f>
         <v>50000000</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="74">
         <v>1</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="57">
         <v>77567389975.100006</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="57">
         <v>81473580832.050003</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="57">
         <v>3906190856.9499998</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="58">
         <v>5.04</v>
       </c>
-      <c r="N9" s="70">
-        <v>0</v>
-      </c>
-      <c r="O9" s="58">
+      <c r="N9" s="57">
+        <v>0</v>
+      </c>
+      <c r="O9" s="57">
         <v>-77567389975.100006</v>
       </c>
-      <c r="P9" s="61">
+      <c r="P9" s="58">
         <v>-100</v>
       </c>
-      <c r="Q9" s="58">
+      <c r="Q9" s="57">
         <v>-81473580832.050003</v>
       </c>
-      <c r="R9" s="61">
+      <c r="R9" s="58">
         <v>-100</v>
       </c>
-      <c r="S9" s="58">
-        <v>0</v>
-      </c>
-      <c r="T9" s="61">
-        <v>0</v>
-      </c>
-      <c r="U9" s="58">
-        <v>0</v>
-      </c>
-      <c r="V9" s="61">
-        <v>0</v>
-      </c>
-      <c r="W9" s="58">
-        <v>0</v>
-      </c>
-      <c r="X9" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="75">
+      <c r="S9" s="57">
+        <v>0</v>
+      </c>
+      <c r="T9" s="58">
+        <v>0</v>
+      </c>
+      <c r="U9" s="57">
+        <v>0</v>
+      </c>
+      <c r="V9" s="58">
+        <v>0</v>
+      </c>
+      <c r="W9" s="57">
+        <v>0</v>
+      </c>
+      <c r="X9" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="161" customFormat="1">
+      <c r="A10" s="160">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="74">
         <v>51000000</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="143" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="144"/>
-      <c r="G10" s="57">
+      <c r="D10" s="68"/>
+      <c r="E10" s="159" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="159"/>
+      <c r="G10" s="73">
         <f t="shared" ref="G10:G11" si="0">C10</f>
         <v>51000000</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="74">
         <v>2</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="57">
         <v>986782456.11000001</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="57">
         <v>1070754819.23</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="57">
         <v>83972363.120000005</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="58">
         <v>8.51</v>
       </c>
-      <c r="N10" s="70">
-        <v>0</v>
-      </c>
-      <c r="O10" s="58">
+      <c r="N10" s="57">
+        <v>0</v>
+      </c>
+      <c r="O10" s="57">
         <v>-986782456.11000001</v>
       </c>
-      <c r="P10" s="61">
+      <c r="P10" s="58">
         <v>-100</v>
       </c>
-      <c r="Q10" s="58">
+      <c r="Q10" s="57">
         <v>-1070754819.23</v>
       </c>
-      <c r="R10" s="61">
+      <c r="R10" s="58">
         <v>-100</v>
       </c>
-      <c r="S10" s="58">
-        <v>0</v>
-      </c>
-      <c r="T10" s="61">
-        <v>0</v>
-      </c>
-      <c r="U10" s="58">
-        <v>0</v>
-      </c>
-      <c r="V10" s="61">
-        <v>0</v>
-      </c>
-      <c r="W10" s="58">
-        <v>0</v>
-      </c>
-      <c r="X10" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="75">
+      <c r="S10" s="57">
+        <v>0</v>
+      </c>
+      <c r="T10" s="58">
+        <v>0</v>
+      </c>
+      <c r="U10" s="57">
+        <v>0</v>
+      </c>
+      <c r="V10" s="58">
+        <v>0</v>
+      </c>
+      <c r="W10" s="57">
+        <v>0</v>
+      </c>
+      <c r="X10" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="161" customFormat="1">
+      <c r="A11" s="160">
         <v>3</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="74">
         <v>51100000</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="73">
         <f t="shared" si="0"/>
         <v>51100000</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="74">
         <v>3</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="57">
         <v>986782456.11000001</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="57">
         <v>1070754819.23</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="57">
         <v>83972363.120000005</v>
       </c>
-      <c r="M11" s="61">
+      <c r="M11" s="58">
         <v>8.51</v>
       </c>
-      <c r="N11" s="70">
-        <v>0</v>
-      </c>
-      <c r="O11" s="58">
+      <c r="N11" s="57">
+        <v>0</v>
+      </c>
+      <c r="O11" s="57">
         <v>-986782456.11000001</v>
       </c>
-      <c r="P11" s="61">
+      <c r="P11" s="58">
         <v>-100</v>
       </c>
-      <c r="Q11" s="58">
+      <c r="Q11" s="57">
         <v>-1070754819.23</v>
       </c>
-      <c r="R11" s="61">
+      <c r="R11" s="58">
         <v>-100</v>
       </c>
-      <c r="S11" s="58">
-        <v>0</v>
-      </c>
-      <c r="T11" s="61">
-        <v>0</v>
-      </c>
-      <c r="U11" s="58">
-        <v>0</v>
-      </c>
-      <c r="V11" s="61">
-        <v>0</v>
-      </c>
-      <c r="W11" s="58">
-        <v>0</v>
-      </c>
-      <c r="X11" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="119"/>
-      <c r="Z12" s="122"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S11" s="57">
+        <v>0</v>
+      </c>
+      <c r="T11" s="58">
+        <v>0</v>
+      </c>
+      <c r="U11" s="57">
+        <v>0</v>
+      </c>
+      <c r="V11" s="58">
+        <v>0</v>
+      </c>
+      <c r="W11" s="57">
+        <v>0</v>
+      </c>
+      <c r="X11" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="162"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="13"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26">
       <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="13"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:26">
       <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="13"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:26">
       <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="13"/>
-    </row>
-    <row r="17" spans="9:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9">
       <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="13"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="19">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2414,6 +2848,21 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="H4:H6"/>
   </mergeCells>
+  <conditionalFormatting sqref="D9:Z3000">
+    <cfRule type="expression" dxfId="58" priority="2">
+      <formula>$I9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A3000 G9:Z3000">
+    <cfRule type="expression" dxfId="56" priority="1">
+      <formula>$A9&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:Z3000">
+    <cfRule type="expression" dxfId="57" priority="3">
+      <formula>$I9=2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" r:id="rId1"/>
@@ -2427,14 +2876,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5" style="19" customWidth="1"/>
     <col min="2" max="2" width="7" style="5" hidden="1" customWidth="1"/>
@@ -2462,19 +2909,19 @@
     <col min="29" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="14.4">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="139" t="str">
+      <c r="D1" s="107" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
       <c r="L1" s="8"/>
@@ -2495,18 +2942,18 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="11"/>
     </row>
-    <row r="2" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="14.4">
       <c r="B2" s="1">
         <v>2022</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="139" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
+      <c r="D2" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
       <c r="J2" s="1"/>
       <c r="K2" s="3"/>
       <c r="L2" s="8"/>
@@ -2527,7 +2974,7 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="11"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16"/>
@@ -2555,142 +3002,140 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="11"/>
     </row>
-    <row r="4" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+    <row r="4" spans="1:28" ht="22.5" customHeight="1">
+      <c r="A4" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="152" t="s">
+      <c r="D4" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="145" t="s">
+      <c r="J4" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="165" t="s">
+      <c r="K4" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="168" t="str">
+      <c r="L4" s="131" t="str">
         <f>"TAHUN " &amp; $B$2-1</f>
         <v>TAHUN 2021</v>
       </c>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="169" t="str">
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="132" t="str">
         <f>"Tahun " &amp;$B$2</f>
         <v>Tahun 2022</v>
       </c>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-    </row>
-    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="170" t="s">
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+    </row>
+    <row r="5" spans="1:28" ht="33.75" customHeight="1">
+      <c r="A5" s="112"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="171" t="s">
+      <c r="M5" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="172"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="177" t="s">
+      <c r="N5" s="135"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="178" t="str">
-        <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA 
-TAHUN "  &amp; $B$2-1</f>
-        <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA 
-TAHUN 2021</v>
-      </c>
-      <c r="R5" s="178"/>
-      <c r="S5" s="178"/>
-      <c r="T5" s="178"/>
-      <c r="U5" s="164" t="s">
+      <c r="Q5" s="141" t="str">
+        <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN "  &amp; $B$2-1</f>
+        <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN 2021</v>
+      </c>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-    </row>
-    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="179" t="s">
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+    </row>
+    <row r="6" spans="1:28" ht="18" customHeight="1">
+      <c r="A6" s="113"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179" t="s">
+      <c r="R6" s="142"/>
+      <c r="S6" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="179"/>
-      <c r="U6" s="164" t="s">
+      <c r="T6" s="142"/>
+      <c r="U6" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164" t="s">
+      <c r="V6" s="127"/>
+      <c r="W6" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164" t="s">
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="164"/>
-      <c r="AA6" s="164" t="s">
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="164"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB6" s="127"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="20"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2754,480 +3199,505 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+    <row r="8" spans="1:28">
+      <c r="A8" s="59"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="68"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="75">
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="65"/>
+    </row>
+    <row r="9" spans="1:28" s="169" customFormat="1">
+      <c r="A9" s="163">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="164">
         <v>50000000</v>
       </c>
-      <c r="D9" s="182" t="s">
+      <c r="D9" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="102">
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="165">
         <f>C9</f>
         <v>50000000</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="97">
+      <c r="K9" s="166">
         <v>1</v>
       </c>
-      <c r="L9" s="98">
+      <c r="L9" s="167">
         <v>77567389975.100006</v>
       </c>
-      <c r="M9" s="98">
+      <c r="M9" s="167">
         <v>81473580832.050003</v>
       </c>
-      <c r="N9" s="99">
+      <c r="N9" s="167">
         <v>3906190856.9499998</v>
       </c>
-      <c r="O9" s="100">
+      <c r="O9" s="168">
         <v>5.04</v>
       </c>
-      <c r="P9" s="98">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="98">
+      <c r="P9" s="167">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="167">
         <v>-77567389975.100006</v>
       </c>
-      <c r="R9" s="100">
+      <c r="R9" s="168">
         <v>-100</v>
       </c>
-      <c r="S9" s="98">
+      <c r="S9" s="167">
         <v>-81473580832.050003</v>
       </c>
-      <c r="T9" s="100">
+      <c r="T9" s="168">
         <v>-100</v>
       </c>
-      <c r="U9" s="98">
-        <v>0</v>
-      </c>
-      <c r="V9" s="100">
-        <v>0</v>
-      </c>
-      <c r="W9" s="98">
-        <v>0</v>
-      </c>
-      <c r="X9" s="100">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="98">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="100">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="98">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="75">
+      <c r="U9" s="167">
+        <v>0</v>
+      </c>
+      <c r="V9" s="168">
+        <v>0</v>
+      </c>
+      <c r="W9" s="167">
+        <v>0</v>
+      </c>
+      <c r="X9" s="168">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="167">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="168">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="167">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="169" customFormat="1">
+      <c r="A10" s="163">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="164">
         <v>51000000</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="184" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="57">
+      <c r="D10" s="170"/>
+      <c r="E10" s="176" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="171">
         <f>C10</f>
         <v>51000000</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="164">
         <v>2</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="172">
         <v>986782456.11000001</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="172">
         <v>1070754819.23</v>
       </c>
-      <c r="N10" s="59">
+      <c r="N10" s="172">
         <v>83972363.120000005</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="173">
         <v>8.51</v>
       </c>
-      <c r="P10" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="58">
+      <c r="P10" s="172">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="172">
         <v>-986782456.11000001</v>
       </c>
-      <c r="R10" s="60">
+      <c r="R10" s="173">
         <v>-100</v>
       </c>
-      <c r="S10" s="58">
+      <c r="S10" s="172">
         <v>-1070754819.23</v>
       </c>
-      <c r="T10" s="60">
+      <c r="T10" s="173">
         <v>-100</v>
       </c>
-      <c r="U10" s="58">
-        <v>0</v>
-      </c>
-      <c r="V10" s="60">
-        <v>0</v>
-      </c>
-      <c r="W10" s="58">
-        <v>0</v>
-      </c>
-      <c r="X10" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="75">
+      <c r="U10" s="172">
+        <v>0</v>
+      </c>
+      <c r="V10" s="173">
+        <v>0</v>
+      </c>
+      <c r="W10" s="172">
+        <v>0</v>
+      </c>
+      <c r="X10" s="173">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="173">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="172">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="169" customFormat="1">
+      <c r="A11" s="163">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="164">
         <v>51100000</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="180" t="s">
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="57">
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="171">
         <f>C11</f>
         <v>51100000</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="164">
         <v>3</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="172">
         <v>986782456.11000001</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="172">
         <v>1070754819.23</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="172">
         <v>83972363.120000005</v>
       </c>
-      <c r="O11" s="60">
+      <c r="O11" s="173">
         <v>8.51</v>
       </c>
-      <c r="P11" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="58">
+      <c r="P11" s="172">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="172">
         <v>-986782456.11000001</v>
       </c>
-      <c r="R11" s="60">
+      <c r="R11" s="173">
         <v>-100</v>
       </c>
-      <c r="S11" s="58">
+      <c r="S11" s="172">
         <v>-1070754819.23</v>
       </c>
-      <c r="T11" s="60">
+      <c r="T11" s="173">
         <v>-100</v>
       </c>
-      <c r="U11" s="58">
-        <v>0</v>
-      </c>
-      <c r="V11" s="60">
-        <v>0</v>
-      </c>
-      <c r="W11" s="58">
-        <v>0</v>
-      </c>
-      <c r="X11" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="75">
+      <c r="U11" s="172">
+        <v>0</v>
+      </c>
+      <c r="V11" s="173">
+        <v>0</v>
+      </c>
+      <c r="W11" s="172">
+        <v>0</v>
+      </c>
+      <c r="X11" s="173">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="173">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="172">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="169" customFormat="1">
+      <c r="A12" s="163">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="164">
         <v>51110000</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="181" t="s">
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="181"/>
-      <c r="I12" s="57">
+      <c r="H12" s="174"/>
+      <c r="I12" s="171">
         <f>C12</f>
         <v>51110000</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="164">
         <v>4</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="172">
         <v>719001866.75</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="172">
         <v>782753358.24000001</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="172">
         <v>63751491.490000002</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="173">
         <v>8.8699999999999992</v>
       </c>
-      <c r="P12" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="58">
+      <c r="P12" s="172">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="172">
         <v>-719001866.75</v>
       </c>
-      <c r="R12" s="60">
+      <c r="R12" s="173">
         <v>-100</v>
       </c>
-      <c r="S12" s="58">
+      <c r="S12" s="172">
         <v>-782753358.24000001</v>
       </c>
-      <c r="T12" s="60">
+      <c r="T12" s="173">
         <v>-100</v>
       </c>
-      <c r="U12" s="58">
-        <v>0</v>
-      </c>
-      <c r="V12" s="60">
-        <v>0</v>
-      </c>
-      <c r="W12" s="58">
-        <v>0</v>
-      </c>
-      <c r="X12" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="75">
+      <c r="U12" s="172">
+        <v>0</v>
+      </c>
+      <c r="V12" s="173">
+        <v>0</v>
+      </c>
+      <c r="W12" s="172">
+        <v>0</v>
+      </c>
+      <c r="X12" s="173">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="173">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="172">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="169" customFormat="1">
+      <c r="A13" s="163">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="164">
         <v>51111010</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77" t="s">
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="171">
         <f>C13</f>
         <v>51111010</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="164">
         <v>5</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="172">
         <v>719001866.75</v>
       </c>
-      <c r="M13" s="58">
+      <c r="M13" s="172">
         <v>782753358.24000001</v>
       </c>
-      <c r="N13" s="59">
+      <c r="N13" s="172">
         <v>63751491.490000002</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="173">
         <v>8.8699999999999992</v>
       </c>
-      <c r="P13" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="58">
+      <c r="P13" s="172">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="172">
         <v>-719001866.75</v>
       </c>
-      <c r="R13" s="60">
+      <c r="R13" s="173">
         <v>-100</v>
       </c>
-      <c r="S13" s="58">
+      <c r="S13" s="172">
         <v>-782753358.24000001</v>
       </c>
-      <c r="T13" s="60">
+      <c r="T13" s="173">
         <v>-100</v>
       </c>
-      <c r="U13" s="58">
-        <v>0</v>
-      </c>
-      <c r="V13" s="60">
-        <v>0</v>
-      </c>
-      <c r="W13" s="58">
-        <v>0</v>
-      </c>
-      <c r="X13" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="129"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U13" s="172">
+        <v>0</v>
+      </c>
+      <c r="V13" s="173">
+        <v>0</v>
+      </c>
+      <c r="W13" s="172">
+        <v>0</v>
+      </c>
+      <c r="X13" s="173">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="173">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="172">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="100"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="P15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="P16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="P17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="P18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="P19" s="7"/>
       <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="19">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -3258,6 +3728,31 @@
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="E10:H10"/>
   </mergeCells>
+  <conditionalFormatting sqref="D9:AB3000">
+    <cfRule type="expression" dxfId="42" priority="2">
+      <formula>$K9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:AB3000">
+    <cfRule type="expression" dxfId="41" priority="5">
+      <formula>$K9=4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:AB3000">
+    <cfRule type="expression" dxfId="40" priority="3">
+      <formula>$K9=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:AB3000">
+    <cfRule type="expression" dxfId="39" priority="4">
+      <formula>$K9=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A3000 I9:AB3000">
+    <cfRule type="expression" dxfId="38" priority="1">
+      <formula>$A9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" r:id="rId1"/>
@@ -3268,17 +3763,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="5" hidden="1" customWidth="1"/>
@@ -3288,35 +3781,35 @@
     <col min="7" max="7" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="13.88671875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="10" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="14" customWidth="1"/>
-    <col min="14" max="15" width="13.88671875" style="10" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" style="10" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" style="10" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" style="10" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="14" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" style="10" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" style="14" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" style="10" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" style="14" customWidth="1"/>
+    <col min="10" max="11" width="13.88671875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="13" customWidth="1"/>
+    <col min="14" max="15" width="13.88671875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="13" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" style="7" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" style="13" customWidth="1"/>
     <col min="27" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.4">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="138" t="str">
+      <c r="D1" s="106" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
       <c r="J1" s="25"/>
@@ -3337,16 +3830,15 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="14.4">
       <c r="B2" s="1">
         <v>2022</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="139" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="D2" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
       <c r="J2" s="8"/>
@@ -3367,7 +3859,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16"/>
@@ -3393,136 +3885,134 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+    <row r="4" spans="1:26" ht="22.5" customHeight="1">
+      <c r="A4" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="152" t="s">
+      <c r="D4" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="145" t="s">
+      <c r="H4" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="165" t="s">
+      <c r="I4" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="168" t="str">
+      <c r="J4" s="131" t="str">
         <f>"TAHUN " &amp; $B$2-1</f>
         <v>TAHUN 2021</v>
       </c>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="169" t="str">
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="132" t="str">
         <f>"Tahun " &amp;$B$2</f>
         <v>Tahun 2022</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="169"/>
-    </row>
-    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="170" t="s">
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+    </row>
+    <row r="5" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A5" s="112"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="171" t="s">
+      <c r="K5" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="177" t="s">
+      <c r="L5" s="135"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="178" t="str">
-        <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA 
-TAHUN " &amp; $B$2-1</f>
-        <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA 
-TAHUN 2021</v>
-      </c>
-      <c r="P5" s="178"/>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="164" t="s">
+      <c r="O5" s="141" t="str">
+        <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN " &amp; $B$2-1</f>
+        <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN 2021</v>
+      </c>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-    </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="179" t="s">
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="113"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179" t="s">
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="179"/>
-      <c r="S6" s="164" t="s">
+      <c r="R6" s="142"/>
+      <c r="S6" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164" t="s">
+      <c r="T6" s="127"/>
+      <c r="U6" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164" t="s">
+      <c r="V6" s="127"/>
+      <c r="W6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164" t="s">
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="164"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="127"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="20"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3584,396 +4074,335 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
+    <row r="8" spans="1:26">
+      <c r="A8" s="59"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="65"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
       <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="68"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
+      <c r="K8" s="63"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="66"/>
+    </row>
+    <row r="9" spans="1:26" s="161" customFormat="1">
+      <c r="A9" s="160">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="74">
         <v>50000000</v>
       </c>
-      <c r="D9" s="185" t="s">
+      <c r="D9" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="102">
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="73">
         <f>C9</f>
         <v>50000000</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="74">
         <v>1</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="57">
         <v>77567389975.100006</v>
       </c>
-      <c r="K9" s="98">
+      <c r="K9" s="57">
         <v>81473580832.050003</v>
       </c>
-      <c r="L9" s="99">
+      <c r="L9" s="57">
         <v>3906190856.9499998</v>
       </c>
-      <c r="M9" s="100">
+      <c r="M9" s="58">
         <v>5.04</v>
       </c>
-      <c r="N9" s="98">
-        <v>0</v>
-      </c>
-      <c r="O9" s="98">
+      <c r="N9" s="57">
+        <v>0</v>
+      </c>
+      <c r="O9" s="57">
         <v>-77567389975.100006</v>
       </c>
-      <c r="P9" s="100">
+      <c r="P9" s="58">
         <v>-100</v>
       </c>
-      <c r="Q9" s="98">
+      <c r="Q9" s="57">
         <v>-81473580832.050003</v>
       </c>
-      <c r="R9" s="100">
+      <c r="R9" s="58">
         <v>-100</v>
       </c>
-      <c r="S9" s="98">
-        <v>0</v>
-      </c>
-      <c r="T9" s="100">
-        <v>0</v>
-      </c>
-      <c r="U9" s="98">
-        <v>0</v>
-      </c>
-      <c r="V9" s="100">
-        <v>0</v>
-      </c>
-      <c r="W9" s="98">
-        <v>0</v>
-      </c>
-      <c r="X9" s="100">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="98">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="79">
+      <c r="S9" s="57">
+        <v>0</v>
+      </c>
+      <c r="T9" s="58">
+        <v>0</v>
+      </c>
+      <c r="U9" s="57">
+        <v>0</v>
+      </c>
+      <c r="V9" s="58">
+        <v>0</v>
+      </c>
+      <c r="W9" s="57">
+        <v>0</v>
+      </c>
+      <c r="X9" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="161" customFormat="1">
+      <c r="A10" s="160">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="74">
         <v>51000000</v>
       </c>
-      <c r="E10" s="186" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="186"/>
-      <c r="G10" s="57">
+      <c r="D10" s="68"/>
+      <c r="E10" s="159" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="159"/>
+      <c r="G10" s="73">
         <f t="shared" ref="G10:G11" si="0">C10</f>
         <v>51000000</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="74">
         <v>2</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="57">
         <v>986782456.11000001</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="57">
         <v>1070754819.23</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="57">
         <v>83972363.120000005</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="58">
         <v>8.51</v>
       </c>
-      <c r="N10" s="58">
-        <v>0</v>
-      </c>
-      <c r="O10" s="58">
+      <c r="N10" s="57">
+        <v>0</v>
+      </c>
+      <c r="O10" s="57">
         <v>-986782456.11000001</v>
       </c>
-      <c r="P10" s="60">
+      <c r="P10" s="58">
         <v>-100</v>
       </c>
-      <c r="Q10" s="58">
+      <c r="Q10" s="57">
         <v>-1070754819.23</v>
       </c>
-      <c r="R10" s="60">
+      <c r="R10" s="58">
         <v>-100</v>
       </c>
-      <c r="S10" s="58">
-        <v>0</v>
-      </c>
-      <c r="T10" s="60">
-        <v>0</v>
-      </c>
-      <c r="U10" s="58">
-        <v>0</v>
-      </c>
-      <c r="V10" s="60">
-        <v>0</v>
-      </c>
-      <c r="W10" s="58">
-        <v>0</v>
-      </c>
-      <c r="X10" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="79">
+      <c r="S10" s="57">
+        <v>0</v>
+      </c>
+      <c r="T10" s="58">
+        <v>0</v>
+      </c>
+      <c r="U10" s="57">
+        <v>0</v>
+      </c>
+      <c r="V10" s="58">
+        <v>0</v>
+      </c>
+      <c r="W10" s="57">
+        <v>0</v>
+      </c>
+      <c r="X10" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="161" customFormat="1">
+      <c r="A11" s="160">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="74">
         <v>51100000</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="73">
         <f t="shared" si="0"/>
         <v>51100000</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="74">
         <v>3</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="57">
         <v>986782456.11000001</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="57">
         <v>1070754819.23</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="57">
         <v>83972363.120000005</v>
       </c>
-      <c r="M11" s="60">
+      <c r="M11" s="58">
         <v>8.51</v>
       </c>
-      <c r="N11" s="58">
-        <v>0</v>
-      </c>
-      <c r="O11" s="58">
+      <c r="N11" s="57">
+        <v>0</v>
+      </c>
+      <c r="O11" s="57">
         <v>-986782456.11000001</v>
       </c>
-      <c r="P11" s="60">
+      <c r="P11" s="58">
         <v>-100</v>
       </c>
-      <c r="Q11" s="58">
+      <c r="Q11" s="57">
         <v>-1070754819.23</v>
       </c>
-      <c r="R11" s="60">
+      <c r="R11" s="58">
         <v>-100</v>
       </c>
-      <c r="S11" s="58">
-        <v>0</v>
-      </c>
-      <c r="T11" s="60">
-        <v>0</v>
-      </c>
-      <c r="U11" s="58">
-        <v>0</v>
-      </c>
-      <c r="V11" s="60">
-        <v>0</v>
-      </c>
-      <c r="W11" s="58">
-        <v>0</v>
-      </c>
-      <c r="X11" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="119"/>
-      <c r="Z12" s="122"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S11" s="57">
+        <v>0</v>
+      </c>
+      <c r="T11" s="58">
+        <v>0</v>
+      </c>
+      <c r="U11" s="57">
+        <v>0</v>
+      </c>
+      <c r="V11" s="58">
+        <v>0</v>
+      </c>
+      <c r="W11" s="57">
+        <v>0</v>
+      </c>
+      <c r="X11" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="162"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="13"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26">
       <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="13"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:26">
       <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="13"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:26">
       <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="13"/>
-    </row>
-    <row r="17" spans="9:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9">
       <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="13"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="19">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Z4"/>
@@ -3982,19 +4411,28 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="S5:Z5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="D4:F6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
+  <conditionalFormatting sqref="D9:Z3000">
+    <cfRule type="expression" dxfId="37" priority="3">
+      <formula>$I9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A3000 G9:Z3000">
+    <cfRule type="expression" dxfId="36" priority="2">
+      <formula>$A9&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:Z3000">
+    <cfRule type="expression" dxfId="35" priority="1">
+      <formula>$I9=2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" r:id="rId1"/>
@@ -4005,19 +4443,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="19" customWidth="1"/>
     <col min="2" max="2" width="7" style="5" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="5" hidden="1" customWidth="1"/>
     <col min="4" max="7" width="3.6640625" style="18" customWidth="1"/>
@@ -4043,22 +4479,22 @@
     <col min="29" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="14.4">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="139" t="str">
+      <c r="D1" s="107" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="25"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="11"/>
@@ -4076,18 +4512,18 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="11"/>
     </row>
-    <row r="2" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="14.4">
       <c r="B2" s="1">
         <v>2022</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="139" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
+      <c r="D2" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
       <c r="J2" s="1"/>
       <c r="K2" s="3"/>
       <c r="L2" s="8"/>
@@ -4108,7 +4544,7 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="11"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16"/>
@@ -4136,142 +4572,140 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="11"/>
     </row>
-    <row r="4" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+    <row r="4" spans="1:28" ht="22.5" customHeight="1">
+      <c r="A4" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="152" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="145" t="s">
+      <c r="D4" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="165" t="s">
+      <c r="K4" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="168" t="str">
+      <c r="L4" s="131" t="str">
         <f>"TAHUN " &amp; $B$2-1</f>
         <v>TAHUN 2021</v>
       </c>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="169" t="str">
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="132" t="str">
         <f>"Tahun " &amp;$B$2</f>
         <v>Tahun 2022</v>
       </c>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-    </row>
-    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="170" t="s">
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+    </row>
+    <row r="5" spans="1:28" ht="33.75" customHeight="1">
+      <c r="A5" s="112"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="171" t="s">
+      <c r="M5" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="172"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="177" t="s">
+      <c r="N5" s="135"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="178" t="str">
-        <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA 
-TAHUN " &amp; $B$2-1</f>
-        <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA 
-TAHUN 2021</v>
-      </c>
-      <c r="R5" s="178"/>
-      <c r="S5" s="178"/>
-      <c r="T5" s="178"/>
-      <c r="U5" s="164" t="s">
+      <c r="Q5" s="141" t="str">
+        <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN "  &amp; $B$2-1</f>
+        <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN 2021</v>
+      </c>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-    </row>
-    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="179" t="s">
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+    </row>
+    <row r="6" spans="1:28" ht="18" customHeight="1">
+      <c r="A6" s="113"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179" t="s">
+      <c r="R6" s="142"/>
+      <c r="S6" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="179"/>
-      <c r="U6" s="164" t="s">
+      <c r="T6" s="142"/>
+      <c r="U6" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164" t="s">
+      <c r="V6" s="127"/>
+      <c r="W6" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164" t="s">
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="164"/>
-      <c r="AA6" s="164" t="s">
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="164"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB6" s="127"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="20"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4335,587 +4769,520 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+    <row r="8" spans="1:28">
+      <c r="A8" s="59"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="68"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="75">
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="65"/>
+    </row>
+    <row r="9" spans="1:28" s="169" customFormat="1">
+      <c r="A9" s="163">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="164">
         <v>50000000</v>
       </c>
-      <c r="D9" s="182" t="s">
+      <c r="D9" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="102">
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="165">
         <f>C9</f>
         <v>50000000</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="97">
+      <c r="K9" s="166">
         <v>1</v>
       </c>
-      <c r="L9" s="98">
+      <c r="L9" s="167">
         <v>77567389975.100006</v>
       </c>
-      <c r="M9" s="98">
+      <c r="M9" s="167">
         <v>81473580832.050003</v>
       </c>
-      <c r="N9" s="99">
+      <c r="N9" s="167">
         <v>3906190856.9499998</v>
       </c>
-      <c r="O9" s="100">
+      <c r="O9" s="168">
         <v>5.04</v>
       </c>
-      <c r="P9" s="98">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="98">
+      <c r="P9" s="167">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="167">
         <v>-77567389975.100006</v>
       </c>
-      <c r="R9" s="100">
+      <c r="R9" s="168">
         <v>-100</v>
       </c>
-      <c r="S9" s="98">
+      <c r="S9" s="167">
         <v>-81473580832.050003</v>
       </c>
-      <c r="T9" s="100">
+      <c r="T9" s="168">
         <v>-100</v>
       </c>
-      <c r="U9" s="98">
-        <v>0</v>
-      </c>
-      <c r="V9" s="100">
-        <v>0</v>
-      </c>
-      <c r="W9" s="98">
-        <v>0</v>
-      </c>
-      <c r="X9" s="100">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="98">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="100">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="98">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="75">
+      <c r="U9" s="167">
+        <v>0</v>
+      </c>
+      <c r="V9" s="168">
+        <v>0</v>
+      </c>
+      <c r="W9" s="167">
+        <v>0</v>
+      </c>
+      <c r="X9" s="168">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="167">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="168">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="167">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="169" customFormat="1">
+      <c r="A10" s="163">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="164">
         <v>51000000</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="184" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="57">
-        <f t="shared" ref="I10:I13" si="0">C10</f>
+      <c r="D10" s="170"/>
+      <c r="E10" s="176" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="171">
+        <f>C10</f>
         <v>51000000</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="164">
         <v>2</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="172">
         <v>986782456.11000001</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="172">
         <v>1070754819.23</v>
       </c>
-      <c r="N10" s="59">
+      <c r="N10" s="172">
         <v>83972363.120000005</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="173">
         <v>8.51</v>
       </c>
-      <c r="P10" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="58">
+      <c r="P10" s="172">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="172">
         <v>-986782456.11000001</v>
       </c>
-      <c r="R10" s="60">
+      <c r="R10" s="173">
         <v>-100</v>
       </c>
-      <c r="S10" s="58">
+      <c r="S10" s="172">
         <v>-1070754819.23</v>
       </c>
-      <c r="T10" s="60">
+      <c r="T10" s="173">
         <v>-100</v>
       </c>
-      <c r="U10" s="58">
-        <v>0</v>
-      </c>
-      <c r="V10" s="60">
-        <v>0</v>
-      </c>
-      <c r="W10" s="58">
-        <v>0</v>
-      </c>
-      <c r="X10" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="75">
+      <c r="U10" s="172">
+        <v>0</v>
+      </c>
+      <c r="V10" s="173">
+        <v>0</v>
+      </c>
+      <c r="W10" s="172">
+        <v>0</v>
+      </c>
+      <c r="X10" s="173">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="173">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="172">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="169" customFormat="1">
+      <c r="A11" s="163">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="164">
         <v>51100000</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="180" t="s">
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="57">
-        <f t="shared" si="0"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="171">
+        <f>C11</f>
         <v>51100000</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="164">
         <v>3</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="172">
         <v>986782456.11000001</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="172">
         <v>1070754819.23</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="172">
         <v>83972363.120000005</v>
       </c>
-      <c r="O11" s="60">
+      <c r="O11" s="173">
         <v>8.51</v>
       </c>
-      <c r="P11" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="58">
+      <c r="P11" s="172">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="172">
         <v>-986782456.11000001</v>
       </c>
-      <c r="R11" s="60">
+      <c r="R11" s="173">
         <v>-100</v>
       </c>
-      <c r="S11" s="58">
+      <c r="S11" s="172">
         <v>-1070754819.23</v>
       </c>
-      <c r="T11" s="60">
+      <c r="T11" s="173">
         <v>-100</v>
       </c>
-      <c r="U11" s="58">
-        <v>0</v>
-      </c>
-      <c r="V11" s="60">
-        <v>0</v>
-      </c>
-      <c r="W11" s="58">
-        <v>0</v>
-      </c>
-      <c r="X11" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="75">
+      <c r="U11" s="172">
+        <v>0</v>
+      </c>
+      <c r="V11" s="173">
+        <v>0</v>
+      </c>
+      <c r="W11" s="172">
+        <v>0</v>
+      </c>
+      <c r="X11" s="173">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="173">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="172">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="169" customFormat="1">
+      <c r="A12" s="163">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5">
-        <v>52000000</v>
-      </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="181" t="s">
+      <c r="C12" s="164">
+        <v>51110000</v>
+      </c>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="181"/>
-      <c r="I12" s="57">
-        <f t="shared" si="0"/>
-        <v>52000000</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="H12" s="174"/>
+      <c r="I12" s="171">
+        <f>C12</f>
+        <v>51110000</v>
+      </c>
+      <c r="J12" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="164">
+        <v>4</v>
+      </c>
+      <c r="L12" s="172">
+        <v>719001866.75</v>
+      </c>
+      <c r="M12" s="172">
+        <v>782753358.24000001</v>
+      </c>
+      <c r="N12" s="172">
+        <v>63751491.490000002</v>
+      </c>
+      <c r="O12" s="173">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="P12" s="172">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="172">
+        <v>-719001866.75</v>
+      </c>
+      <c r="R12" s="173">
+        <v>-100</v>
+      </c>
+      <c r="S12" s="172">
+        <v>-782753358.24000001</v>
+      </c>
+      <c r="T12" s="173">
+        <v>-100</v>
+      </c>
+      <c r="U12" s="172">
+        <v>0</v>
+      </c>
+      <c r="V12" s="173">
+        <v>0</v>
+      </c>
+      <c r="W12" s="172">
+        <v>0</v>
+      </c>
+      <c r="X12" s="173">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="173">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="172">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="169" customFormat="1">
+      <c r="A13" s="163">
+        <v>5</v>
+      </c>
+      <c r="B13" s="164" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="164">
+        <v>51111010</v>
+      </c>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="171">
+        <f>C13</f>
+        <v>51111010</v>
+      </c>
+      <c r="J13" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="164">
+        <v>5</v>
+      </c>
+      <c r="L13" s="172">
+        <v>719001866.75</v>
+      </c>
+      <c r="M13" s="172">
+        <v>782753358.24000001</v>
+      </c>
+      <c r="N13" s="172">
+        <v>63751491.490000002</v>
+      </c>
+      <c r="O13" s="173">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="P13" s="172">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="172">
+        <v>-719001866.75</v>
+      </c>
+      <c r="R13" s="173">
+        <v>-100</v>
+      </c>
+      <c r="S13" s="172">
+        <v>-782753358.24000001</v>
+      </c>
+      <c r="T13" s="173">
+        <v>-100</v>
+      </c>
+      <c r="U13" s="172">
+        <v>0</v>
+      </c>
+      <c r="V13" s="173">
+        <v>0</v>
+      </c>
+      <c r="W13" s="172">
+        <v>0</v>
+      </c>
+      <c r="X13" s="173">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="173">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="172">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="100"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="P15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="P16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="P17" s="7"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="P18" s="7"/>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="P19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="19">
         <v>2</v>
       </c>
-      <c r="L12" s="58">
-        <v>46367720657.849998</v>
-      </c>
-      <c r="M12" s="58">
-        <v>48668101746.75</v>
-      </c>
-      <c r="N12" s="59">
-        <v>2300381088.9000001</v>
-      </c>
-      <c r="O12" s="60">
-        <v>4.96</v>
-      </c>
-      <c r="P12" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="58">
-        <v>-46367720657.849998</v>
-      </c>
-      <c r="R12" s="60">
-        <v>-100</v>
-      </c>
-      <c r="S12" s="58">
-        <v>-48668101746.75</v>
-      </c>
-      <c r="T12" s="60">
-        <v>-100</v>
-      </c>
-      <c r="U12" s="58">
-        <v>0</v>
-      </c>
-      <c r="V12" s="60">
-        <v>0</v>
-      </c>
-      <c r="W12" s="58">
-        <v>0</v>
-      </c>
-      <c r="X12" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="75">
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5">
-        <v>52100000</v>
-      </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="57">
-        <f t="shared" si="0"/>
-        <v>52100000</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="5">
-        <v>3</v>
-      </c>
-      <c r="L13" s="58">
-        <v>27184962194.529999</v>
-      </c>
-      <c r="M13" s="58">
-        <v>28647152769.669998</v>
-      </c>
-      <c r="N13" s="59">
-        <v>1462190575.1400001</v>
-      </c>
-      <c r="O13" s="60">
-        <v>5.38</v>
-      </c>
-      <c r="P13" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="58">
-        <v>-27184962194.529999</v>
-      </c>
-      <c r="R13" s="60">
-        <v>-100</v>
-      </c>
-      <c r="S13" s="58">
-        <v>-28647152769.669998</v>
-      </c>
-      <c r="T13" s="60">
-        <v>-100</v>
-      </c>
-      <c r="U13" s="58">
-        <v>0</v>
-      </c>
-      <c r="V13" s="60">
-        <v>0</v>
-      </c>
-      <c r="W13" s="58">
-        <v>0</v>
-      </c>
-      <c r="X13" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="122"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K15" s="5"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="13"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K16" s="5"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="13"/>
-    </row>
-    <row r="17" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K17" s="5"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="13"/>
-    </row>
-    <row r="18" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K18" s="5"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="13"/>
-    </row>
-    <row r="19" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K19" s="5"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="13"/>
-    </row>
-    <row r="20" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K20" s="5"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="P4:AB4"/>
@@ -4924,21 +5291,38 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="U5:AB5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
     <mergeCell ref="D4:H6"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="E10:H10"/>
   </mergeCells>
+  <conditionalFormatting sqref="D9:AB3000">
+    <cfRule type="expression" dxfId="34" priority="5">
+      <formula>$K9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:AB3000">
+    <cfRule type="expression" dxfId="33" priority="4">
+      <formula>$K9=4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:AB3000">
+    <cfRule type="expression" dxfId="32" priority="3">
+      <formula>$K9=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:AB3000">
+    <cfRule type="expression" dxfId="31" priority="2">
+      <formula>$K9=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A3000 I9:AB3000">
+    <cfRule type="expression" dxfId="30" priority="1">
+      <formula>$A9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" r:id="rId1"/>
@@ -4949,17 +5333,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0066FF"/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:M9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6" style="19" customWidth="1"/>
     <col min="2" max="2" width="7" style="5" hidden="1" customWidth="1"/>
@@ -4985,7 +5367,7 @@
     <col min="26" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="14.4" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
@@ -4993,16 +5375,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="138" t="str">
+      <c r="G1" s="106" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
       <c r="N1" s="28"/>
       <c r="O1" s="29"/>
       <c r="P1" s="33"/>
@@ -5016,7 +5398,7 @@
       <c r="X1" s="33"/>
       <c r="Y1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="14.4" customHeight="1">
       <c r="B2" s="5">
         <v>2022</v>
       </c>
@@ -5024,15 +5406,15 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="33"/>
@@ -5046,7 +5428,7 @@
       <c r="X2" s="33"/>
       <c r="Y2" s="11"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5072,61 +5454,61 @@
       <c r="X3" s="33"/>
       <c r="Y3" s="11"/>
     </row>
-    <row r="4" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+    <row r="4" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A4" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="202" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="200"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="152" t="s">
+      <c r="C4" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="149"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="200"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="188"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="168" t="s">
+      <c r="H4" s="149"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="169" t="s">
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-    </row>
-    <row r="5" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="150"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="191"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="192"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+    </row>
+    <row r="5" spans="1:25" ht="18" customHeight="1">
+      <c r="A5" s="113"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="148"/>
       <c r="N5" s="32" t="s">
         <v>67</v>
       </c>
@@ -5139,24 +5521,24 @@
       <c r="Q5" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="164" t="s">
+      <c r="R5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="164"/>
-      <c r="T5" s="164" t="s">
+      <c r="S5" s="127"/>
+      <c r="T5" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164" t="s">
+      <c r="U5" s="127"/>
+      <c r="V5" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164" t="s">
+      <c r="W5" s="127"/>
+      <c r="X5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="164"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y5" s="127"/>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="20"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5207,329 +5589,331 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+    <row r="7" spans="1:25">
+      <c r="A7" s="69"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="68"/>
-    </row>
-    <row r="8" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79">
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="185"/>
+    </row>
+    <row r="8" spans="1:25" s="183" customFormat="1">
+      <c r="A8" s="177">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="178">
         <v>61217011</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="95">
+      <c r="F8" s="178"/>
+      <c r="G8" s="179">
         <v>61217011</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="178">
         <v>1</v>
       </c>
-      <c r="I8" s="96"/>
-      <c r="J8" s="193" t="s">
+      <c r="I8" s="178"/>
+      <c r="J8" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="91">
-        <v>0</v>
-      </c>
-      <c r="O8" s="91">
-        <v>0</v>
-      </c>
-      <c r="P8" s="92">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="92">
+      <c r="K8" s="176"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="180">
+        <v>0</v>
+      </c>
+      <c r="O8" s="180">
+        <v>0</v>
+      </c>
+      <c r="P8" s="181">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="181">
         <v>72000000</v>
       </c>
-      <c r="R8" s="93">
+      <c r="R8" s="181">
         <v>36000000</v>
       </c>
-      <c r="S8" s="94">
+      <c r="S8" s="182">
         <v>50</v>
       </c>
-      <c r="T8" s="93">
+      <c r="T8" s="181">
         <v>36000000</v>
       </c>
-      <c r="U8" s="94">
+      <c r="U8" s="182">
         <v>50</v>
       </c>
-      <c r="V8" s="93">
-        <v>0</v>
-      </c>
-      <c r="W8" s="94">
-        <v>0</v>
-      </c>
-      <c r="X8" s="93">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
+      <c r="V8" s="181">
+        <v>0</v>
+      </c>
+      <c r="W8" s="182">
+        <v>0</v>
+      </c>
+      <c r="X8" s="181">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="183" customFormat="1">
+      <c r="A9" s="177">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="178">
         <v>61217011</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84">
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="178">
+        <v>2</v>
+      </c>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="176" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="180">
+        <v>0</v>
+      </c>
+      <c r="O9" s="180">
+        <v>0</v>
+      </c>
+      <c r="P9" s="181">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="181">
+        <v>72000000</v>
+      </c>
+      <c r="R9" s="181">
+        <v>36000000</v>
+      </c>
+      <c r="S9" s="182">
+        <v>50</v>
+      </c>
+      <c r="T9" s="181">
+        <v>36000000</v>
+      </c>
+      <c r="U9" s="182">
+        <v>50</v>
+      </c>
+      <c r="V9" s="181">
+        <v>0</v>
+      </c>
+      <c r="W9" s="182">
+        <v>0</v>
+      </c>
+      <c r="X9" s="181">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="183" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A10" s="177">
         <v>3</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="196" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="135">
-        <v>0</v>
-      </c>
-      <c r="O9" s="135">
-        <v>0</v>
-      </c>
-      <c r="P9" s="136">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="136">
+      <c r="B10" s="178" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="178">
+        <v>61217011</v>
+      </c>
+      <c r="D10" s="178" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="178" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="179"/>
+      <c r="H10" s="178">
+        <v>3</v>
+      </c>
+      <c r="I10" s="178">
+        <v>0</v>
+      </c>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="176" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="176"/>
+      <c r="N10" s="180">
+        <v>0</v>
+      </c>
+      <c r="O10" s="180">
+        <v>0</v>
+      </c>
+      <c r="P10" s="181">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="181">
         <v>72000000</v>
       </c>
-      <c r="R9" s="137">
+      <c r="R10" s="181">
         <v>36000000</v>
       </c>
-      <c r="S9" s="101">
+      <c r="S10" s="182">
         <v>50</v>
       </c>
-      <c r="T9" s="137">
+      <c r="T10" s="181">
         <v>36000000</v>
       </c>
-      <c r="U9" s="101">
+      <c r="U10" s="182">
         <v>50</v>
       </c>
-      <c r="V9" s="137">
-        <v>0</v>
-      </c>
-      <c r="W9" s="101">
-        <v>0</v>
-      </c>
-      <c r="X9" s="137">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="V10" s="181">
+        <v>0</v>
+      </c>
+      <c r="W10" s="182">
+        <v>0</v>
+      </c>
+      <c r="X10" s="181">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="183" customFormat="1">
+      <c r="A11" s="177">
+        <v>4</v>
+      </c>
+      <c r="B11" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="178">
         <v>61217011</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F11" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84">
+      <c r="G11" s="179"/>
+      <c r="H11" s="178">
         <v>4</v>
       </c>
-      <c r="I10" s="84">
-        <v>0</v>
-      </c>
-      <c r="J10" s="108"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="198" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="199"/>
-      <c r="N10" s="86">
-        <v>0</v>
-      </c>
-      <c r="O10" s="86">
-        <v>0</v>
-      </c>
-      <c r="P10" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="87">
-        <v>72000000</v>
-      </c>
-      <c r="R10" s="88">
-        <v>36000000</v>
-      </c>
-      <c r="S10" s="61">
+      <c r="I11" s="178">
+        <v>1</v>
+      </c>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="184" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="180">
+        <v>1</v>
+      </c>
+      <c r="O11" s="180">
+        <v>6</v>
+      </c>
+      <c r="P11" s="181">
+        <v>2000000</v>
+      </c>
+      <c r="Q11" s="181">
+        <v>12000000</v>
+      </c>
+      <c r="R11" s="181">
+        <v>6000000</v>
+      </c>
+      <c r="S11" s="182">
         <v>50</v>
       </c>
-      <c r="T10" s="88">
-        <v>36000000</v>
-      </c>
-      <c r="U10" s="61">
+      <c r="T11" s="181">
+        <v>6000000</v>
+      </c>
+      <c r="U11" s="182">
         <v>50</v>
       </c>
-      <c r="V10" s="88">
-        <v>0</v>
-      </c>
-      <c r="W10" s="61">
-        <v>0</v>
-      </c>
-      <c r="X10" s="88">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="79">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5">
-        <v>61217011</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84">
-        <v>5</v>
-      </c>
-      <c r="I11" s="84">
-        <v>1</v>
-      </c>
-      <c r="J11" s="108"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="86">
-        <v>1</v>
-      </c>
-      <c r="O11" s="86">
-        <v>6</v>
-      </c>
-      <c r="P11" s="87">
-        <v>2000000</v>
-      </c>
-      <c r="Q11" s="87">
-        <v>12000000</v>
-      </c>
-      <c r="R11" s="88">
-        <v>6000000</v>
-      </c>
-      <c r="S11" s="61">
-        <v>50</v>
-      </c>
-      <c r="T11" s="88">
-        <v>6000000</v>
-      </c>
-      <c r="U11" s="61">
-        <v>50</v>
-      </c>
-      <c r="V11" s="88">
-        <v>0</v>
-      </c>
-      <c r="W11" s="61">
-        <v>0</v>
-      </c>
-      <c r="X11" s="88">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="122"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V11" s="181">
+        <v>0</v>
+      </c>
+      <c r="W11" s="182">
+        <v>0</v>
+      </c>
+      <c r="X11" s="181">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="186"/>
+    </row>
+    <row r="13" spans="1:25">
       <c r="M13" s="51"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
@@ -5544,7 +5928,7 @@
       <c r="X13" s="37"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="M14" s="51"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
@@ -5559,7 +5943,7 @@
       <c r="X14" s="37"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="M15" s="51"/>
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
@@ -5574,7 +5958,7 @@
       <c r="X15" s="37"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="M16" s="51"/>
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
@@ -5589,7 +5973,7 @@
       <c r="X16" s="37"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="13:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="M17" s="51"/>
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
@@ -5604,7 +5988,7 @@
       <c r="X17" s="37"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="13:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="M18" s="51"/>
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
@@ -5618,6 +6002,26 @@
       <c r="W18" s="13"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="13"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="19">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5643,6 +6047,26 @@
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="K9:M9"/>
   </mergeCells>
+  <conditionalFormatting sqref="G8:Y3000">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$H8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:Y3000">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$H8=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:Y3000">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$H8=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:G3000 N8:Y3000">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$A8&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" r:id="rId1"/>
@@ -5653,17 +6077,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="B1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="40" style="52" customWidth="1"/>
@@ -5683,172 +6107,172 @@
     <col min="16" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="208" t="s">
+    <row r="1" spans="2:17" ht="36" customHeight="1">
+      <c r="B1" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="N1" s="205" t="s">
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="N1" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="205"/>
-    </row>
-    <row r="3" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="207" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="207"/>
-      <c r="E3" s="207" t="s">
+      <c r="O1" s="154"/>
+    </row>
+    <row r="3" spans="2:17" ht="31.5" customHeight="1">
+      <c r="B3" s="156" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="156"/>
+      <c r="E3" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="H3" s="207" t="s">
+      <c r="F3" s="156"/>
+      <c r="H3" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="207"/>
-      <c r="K3" s="207" t="s">
+      <c r="I3" s="156"/>
+      <c r="K3" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="207"/>
-      <c r="N3" s="206" t="s">
+      <c r="L3" s="156"/>
+      <c r="N3" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="206"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O3" s="155"/>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="55">
         <v>9</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="55">
         <v>9</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4" s="55">
         <v>9</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L4" s="55">
         <v>9</v>
       </c>
       <c r="N4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="43.2">
+      <c r="B5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="106">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="K5" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>107</v>
-      </c>
       <c r="N5" s="42"/>
-      <c r="O5" s="107"/>
-    </row>
-    <row r="6" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O5" s="82"/>
+    </row>
+    <row r="6" spans="2:17" ht="28.8">
       <c r="B6" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>59</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>59</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N6" s="43" t="s">
         <v>59</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="40" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>82</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N7" s="45" t="s">
         <v>82</v>
       </c>
       <c r="O7" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="52" t="s">
         <v>11</v>
       </c>
@@ -5880,7 +6304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17">
       <c r="B9" s="52" t="s">
         <v>12</v>
       </c>
@@ -5912,29 +6336,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17">
       <c r="B10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="79" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="78" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="103" t="s">
+      <c r="L10" s="78" t="s">
         <v>38</v>
       </c>
       <c r="N10" s="47" t="s">
@@ -5944,29 +6368,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17">
       <c r="B11" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="79" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="105" t="s">
+      <c r="H11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="I11" s="78" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="103" t="s">
+      <c r="L11" s="78" t="s">
         <v>39</v>
       </c>
       <c r="N11" s="47" t="s">
@@ -5976,29 +6400,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17">
       <c r="B12" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="79" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="105" t="s">
+      <c r="H12" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="78" t="s">
         <v>40</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="103" t="s">
+      <c r="L12" s="78" t="s">
         <v>40</v>
       </c>
       <c r="N12" s="47" t="s">
@@ -6008,22 +6432,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17">
       <c r="E13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="78" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="103" t="s">
+      <c r="L13" s="78" t="s">
         <v>41</v>
       </c>
       <c r="N13" s="47"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17">
       <c r="B14" s="52" t="s">
         <v>14</v>
       </c>
@@ -6033,7 +6457,7 @@
       <c r="E14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="78" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -6045,7 +6469,7 @@
       <c r="K14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="103" t="s">
+      <c r="L14" s="78" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="47" t="s">
@@ -6055,7 +6479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17">
       <c r="B15" s="52" t="s">
         <v>15</v>
       </c>
@@ -6075,7 +6499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17">
       <c r="B16" s="52" t="s">
         <v>16</v>
       </c>
@@ -6103,14 +6527,14 @@
       <c r="N16" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="103" t="s">
+      <c r="O16" s="78" t="s">
         <v>44</v>
       </c>
       <c r="Q16" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15">
       <c r="B17" s="52" t="s">
         <v>17</v>
       </c>
@@ -6138,11 +6562,11 @@
       <c r="N17" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="O17" s="103" t="s">
+      <c r="O17" s="78" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15">
       <c r="B18" s="52" t="s">
         <v>31</v>
       </c>
@@ -6170,11 +6594,11 @@
       <c r="N18" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="O18" s="103" t="s">
+      <c r="O18" s="78" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15">
       <c r="B19" s="52" t="s">
         <v>18</v>
       </c>
@@ -6202,11 +6626,11 @@
       <c r="N19" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="O19" s="103" t="s">
+      <c r="O19" s="78" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15">
       <c r="B20" s="52" t="s">
         <v>19</v>
       </c>
@@ -6238,7 +6662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15">
       <c r="B21" s="52" t="s">
         <v>32</v>
       </c>
@@ -6270,7 +6694,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15">
       <c r="B22" s="52" t="s">
         <v>33</v>
       </c>
@@ -6302,7 +6726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15">
       <c r="B23" s="52" t="s">
         <v>34</v>
       </c>
@@ -6328,13 +6752,13 @@
         <v>51</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="O23" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15">
       <c r="B24" s="52" t="s">
         <v>35</v>
       </c>
@@ -6360,15 +6784,15 @@
         <v>52</v>
       </c>
       <c r="N24" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O24" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15">
       <c r="B25" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>53</v>
@@ -6380,7 +6804,7 @@
         <v>53</v>
       </c>
       <c r="H25" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>53</v>
@@ -6392,15 +6816,15 @@
         <v>53</v>
       </c>
       <c r="N25" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O25" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15">
       <c r="B26" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>54</v>
@@ -6412,7 +6836,7 @@
         <v>54</v>
       </c>
       <c r="H26" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>54</v>
@@ -6424,239 +6848,239 @@
         <v>54</v>
       </c>
       <c r="N26" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O26" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15">
       <c r="B27" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>55</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>55</v>
       </c>
       <c r="K27" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L27" s="22" t="s">
         <v>55</v>
       </c>
       <c r="N27" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O27" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15">
       <c r="B28" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="K28" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="N28" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O28" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15">
       <c r="B29" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="53" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>57</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>57</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L29" s="22" t="s">
         <v>57</v>
       </c>
       <c r="N29" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O29" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15">
       <c r="B30" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="53" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>58</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>58</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L30" s="22" t="s">
         <v>58</v>
       </c>
       <c r="N30" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15">
       <c r="B31" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E31" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>96</v>
-      </c>
       <c r="I31" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K31" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="N31" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N32" s="84"/>
+      <c r="O32" s="85"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="E33" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="L31" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="N31" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="47" t="s">
+      <c r="F33" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="84"/>
+      <c r="I33" s="85"/>
+      <c r="K33" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="E34" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="K32" s="47" t="s">
+      <c r="F34" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="L32" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="N32" s="110"/>
-      <c r="O32" s="111"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="112"/>
-      <c r="C33" s="113"/>
-      <c r="E33" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H33" s="110"/>
-      <c r="I33" s="111"/>
-      <c r="K33" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E34" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="K34" s="47" t="s">
-        <v>100</v>
-      </c>
       <c r="L34" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E35" s="110"/>
-      <c r="F35" s="111"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="111"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="85"/>
+    </row>
+    <row r="37" spans="2:12">
       <c r="F37" s="26"/>
     </row>
   </sheetData>

--- a/upload/xlsx_excel/TEMPLATE03.xlsx
+++ b/upload/xlsx_excel/TEMPLATE03.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikhsanykkbi\Documents\WEBSITES-CORE\htdocs\project-ykkbi-sipa\upload\xlsx_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="132" windowWidth="22560" windowHeight="9216" tabRatio="828"/>
   </bookViews>
@@ -23,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">OPERASIONAL!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'OPERASIONAL-RINCIAN'!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -413,7 +418,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="###\.###\.##"/>
     <numFmt numFmtId="165" formatCode="#,##0.00,,;\ \(#,##0.00,,\)"/>
@@ -421,7 +426,7 @@
     <numFmt numFmtId="167" formatCode="#\."/>
     <numFmt numFmtId="168" formatCode="#,##0.00,;\ \(#,##0.00,\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -745,12 +750,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1041,168 +1083,6 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1241,15 +1121,6 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1277,13 +1148,193 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="20">
     <dxf>
       <border>
         <left style="thin">
@@ -1307,201 +1358,6 @@
       <font>
         <color theme="3"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1615,72 +1471,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3ECD0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6DF89"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -1708,186 +1498,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1907,6 +1517,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1955,7 +1568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1987,9 +1600,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2021,6 +1635,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2196,12 +1811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="5" hidden="1" customWidth="1"/>
@@ -2211,8 +1828,8 @@
     <col min="7" max="7" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="13.88671875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="7" customWidth="1"/>
+    <col min="11" max="12" width="13.88671875" style="7" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="13" customWidth="1"/>
     <col min="14" max="15" width="13.88671875" style="7" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" style="13" customWidth="1"/>
@@ -2229,17 +1846,17 @@
     <col min="27" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4">
+    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="106" t="str">
+      <c r="D1" s="130" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
       <c r="J1" s="25"/>
@@ -2260,15 +1877,15 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>2022</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
       <c r="J2" s="8"/>
@@ -2289,7 +1906,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16"/>
@@ -2315,134 +1932,134 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A4" s="111" t="s">
+    <row r="4" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="115" t="s">
+      <c r="D4" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="145"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="128" t="s">
+      <c r="I4" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="131" t="str">
+      <c r="J4" s="157" t="str">
         <f>"TAHUN " &amp; $B$2-1</f>
         <v>TAHUN 2021</v>
       </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="132" t="str">
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="158" t="str">
         <f>"Tahun " &amp;$B$2</f>
         <v>Tahun 2022</v>
       </c>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-    </row>
-    <row r="5" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="133" t="s">
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+    </row>
+    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="138"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="134" t="s">
+      <c r="K5" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="135"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="140" t="s">
+      <c r="L5" s="161"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="141" t="str">
+      <c r="O5" s="167" t="str">
         <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN " &amp; $B$2-1</f>
         <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN 2021</v>
       </c>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="127" t="s">
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-    </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="142" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="139"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142" t="s">
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="142"/>
-      <c r="S6" s="127" t="s">
+      <c r="R6" s="168"/>
+      <c r="S6" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127" t="s">
+      <c r="T6" s="153"/>
+      <c r="U6" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127" t="s">
+      <c r="V6" s="153"/>
+      <c r="W6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127" t="s">
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="127"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="Z6" s="153"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2504,7 +2121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2532,8 +2149,8 @@
       <c r="Y8" s="63"/>
       <c r="Z8" s="66"/>
     </row>
-    <row r="9" spans="1:26" s="161" customFormat="1">
-      <c r="A9" s="160">
+    <row r="9" spans="1:26" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="106">
         <v>1</v>
       </c>
       <c r="B9" s="74" t="s">
@@ -2542,11 +2159,11 @@
       <c r="C9" s="74">
         <v>50000000</v>
       </c>
-      <c r="D9" s="158" t="s">
+      <c r="D9" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
       <c r="G9" s="73">
         <f>C9</f>
         <v>50000000</v>
@@ -2609,8 +2226,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="161" customFormat="1">
-      <c r="A10" s="160">
+    <row r="10" spans="1:26" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="106">
         <v>2</v>
       </c>
       <c r="B10" s="74" t="s">
@@ -2620,10 +2237,10 @@
         <v>51000000</v>
       </c>
       <c r="D10" s="68"/>
-      <c r="E10" s="159" t="s">
+      <c r="E10" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="159"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="73">
         <f t="shared" ref="G10:G11" si="0">C10</f>
         <v>51000000</v>
@@ -2686,8 +2303,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="161" customFormat="1">
-      <c r="A11" s="160">
+    <row r="11" spans="1:26" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="106">
         <v>3</v>
       </c>
       <c r="B11" s="74" t="s">
@@ -2763,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="88"/>
       <c r="B12" s="89"/>
       <c r="C12" s="89"/>
@@ -2789,34 +2406,34 @@
       <c r="W12" s="93"/>
       <c r="X12" s="93"/>
       <c r="Y12" s="93"/>
-      <c r="Z12" s="162"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="Z12" s="108"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I17" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>3</v>
       </c>
@@ -2849,17 +2466,17 @@
     <mergeCell ref="H4:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:Z3000">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$I9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A3000 G9:Z3000">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$A9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:Z3000">
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$I9=2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2876,23 +2493,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="7" style="5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="5" hidden="1" customWidth="1"/>
     <col min="4" max="7" width="3.6640625" style="18" customWidth="1"/>
     <col min="8" max="8" width="75.6640625" style="18" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="13.88671875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="10" customWidth="1"/>
+    <col min="13" max="14" width="13.88671875" style="10" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" style="14" customWidth="1"/>
     <col min="16" max="17" width="13.88671875" style="10" customWidth="1"/>
     <col min="18" max="18" width="6.6640625" style="14" customWidth="1"/>
@@ -2909,19 +2528,19 @@
     <col min="29" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.4">
+    <row r="1" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="107" t="str">
+      <c r="D1" s="131" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
       <c r="L1" s="8"/>
@@ -2942,18 +2561,18 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="11"/>
     </row>
-    <row r="2" spans="1:28" ht="14.4">
+    <row r="2" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>2022</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
       <c r="J2" s="1"/>
       <c r="K2" s="3"/>
       <c r="L2" s="8"/>
@@ -2974,7 +2593,7 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="11"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16"/>
@@ -3002,140 +2621,140 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="11"/>
     </row>
-    <row r="4" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A4" s="111" t="s">
+    <row r="4" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="115" t="s">
+      <c r="D4" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="128" t="s">
+      <c r="K4" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="131" t="str">
+      <c r="L4" s="172" t="str">
         <f>"TAHUN " &amp; $B$2-1</f>
         <v>TAHUN 2021</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="132" t="str">
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="158" t="str">
         <f>"Tahun " &amp;$B$2</f>
         <v>Tahun 2022</v>
       </c>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-    </row>
-    <row r="5" spans="1:28" ht="33.75" customHeight="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="133" t="s">
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+    </row>
+    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="138"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="134" t="s">
+      <c r="M5" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="135"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="140" t="s">
+      <c r="N5" s="161"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="141" t="str">
+      <c r="Q5" s="167" t="str">
         <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN "  &amp; $B$2-1</f>
         <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN 2021</v>
       </c>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="127" t="s">
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-    </row>
-    <row r="6" spans="1:28" ht="18" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="142" t="s">
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+    </row>
+    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="139"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142" t="s">
+      <c r="R6" s="168"/>
+      <c r="S6" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="142"/>
-      <c r="U6" s="127" t="s">
+      <c r="T6" s="168"/>
+      <c r="U6" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127" t="s">
+      <c r="V6" s="153"/>
+      <c r="W6" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127" t="s">
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127" t="s">
+      <c r="Z6" s="153"/>
+      <c r="AA6" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="127"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AB6" s="153"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3199,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3229,402 +2848,402 @@
       <c r="AA8" s="63"/>
       <c r="AB8" s="65"/>
     </row>
-    <row r="9" spans="1:28" s="169" customFormat="1">
-      <c r="A9" s="163">
+    <row r="9" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="109">
         <v>1</v>
       </c>
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="164">
+      <c r="C9" s="110">
         <v>50000000</v>
       </c>
-      <c r="D9" s="175" t="s">
+      <c r="D9" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="165">
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="111">
         <f>C9</f>
         <v>50000000</v>
       </c>
-      <c r="J9" s="166" t="s">
+      <c r="J9" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="166">
+      <c r="K9" s="112">
         <v>1</v>
       </c>
-      <c r="L9" s="167">
+      <c r="L9" s="113">
         <v>77567389975.100006</v>
       </c>
-      <c r="M9" s="167">
+      <c r="M9" s="113">
         <v>81473580832.050003</v>
       </c>
-      <c r="N9" s="167">
+      <c r="N9" s="113">
         <v>3906190856.9499998</v>
       </c>
-      <c r="O9" s="168">
+      <c r="O9" s="114">
         <v>5.04</v>
       </c>
-      <c r="P9" s="167">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="167">
+      <c r="P9" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="113">
         <v>-77567389975.100006</v>
       </c>
-      <c r="R9" s="168">
+      <c r="R9" s="114">
         <v>-100</v>
       </c>
-      <c r="S9" s="167">
+      <c r="S9" s="113">
         <v>-81473580832.050003</v>
       </c>
-      <c r="T9" s="168">
+      <c r="T9" s="114">
         <v>-100</v>
       </c>
-      <c r="U9" s="167">
-        <v>0</v>
-      </c>
-      <c r="V9" s="168">
-        <v>0</v>
-      </c>
-      <c r="W9" s="167">
-        <v>0</v>
-      </c>
-      <c r="X9" s="168">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="167">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="168">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="167">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" s="169" customFormat="1">
-      <c r="A10" s="163">
+      <c r="U9" s="113">
+        <v>0</v>
+      </c>
+      <c r="V9" s="114">
+        <v>0</v>
+      </c>
+      <c r="W9" s="113">
+        <v>0</v>
+      </c>
+      <c r="X9" s="114">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="114">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="109">
         <v>2</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="164">
+      <c r="C10" s="110">
         <v>51000000</v>
       </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="176" t="s">
+      <c r="D10" s="116"/>
+      <c r="E10" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="171">
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="117">
         <f>C10</f>
         <v>51000000</v>
       </c>
-      <c r="J10" s="164" t="s">
+      <c r="J10" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="164">
+      <c r="K10" s="110">
         <v>2</v>
       </c>
-      <c r="L10" s="172">
+      <c r="L10" s="118">
         <v>986782456.11000001</v>
       </c>
-      <c r="M10" s="172">
+      <c r="M10" s="118">
         <v>1070754819.23</v>
       </c>
-      <c r="N10" s="172">
+      <c r="N10" s="118">
         <v>83972363.120000005</v>
       </c>
-      <c r="O10" s="173">
+      <c r="O10" s="119">
         <v>8.51</v>
       </c>
-      <c r="P10" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="172">
+      <c r="P10" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="118">
         <v>-986782456.11000001</v>
       </c>
-      <c r="R10" s="173">
+      <c r="R10" s="119">
         <v>-100</v>
       </c>
-      <c r="S10" s="172">
+      <c r="S10" s="118">
         <v>-1070754819.23</v>
       </c>
-      <c r="T10" s="173">
+      <c r="T10" s="119">
         <v>-100</v>
       </c>
-      <c r="U10" s="172">
-        <v>0</v>
-      </c>
-      <c r="V10" s="173">
-        <v>0</v>
-      </c>
-      <c r="W10" s="172">
-        <v>0</v>
-      </c>
-      <c r="X10" s="173">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="172">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="173">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="172">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="169" customFormat="1">
-      <c r="A11" s="163">
+      <c r="U10" s="118">
+        <v>0</v>
+      </c>
+      <c r="V10" s="119">
+        <v>0</v>
+      </c>
+      <c r="W10" s="118">
+        <v>0</v>
+      </c>
+      <c r="X10" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="119">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="118">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="109">
         <v>3</v>
       </c>
-      <c r="B11" s="164" t="s">
+      <c r="B11" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="164">
+      <c r="C11" s="110">
         <v>51100000</v>
       </c>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="174" t="s">
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="171">
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="117">
         <f>C11</f>
         <v>51100000</v>
       </c>
-      <c r="J11" s="164" t="s">
+      <c r="J11" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="164">
+      <c r="K11" s="110">
         <v>3</v>
       </c>
-      <c r="L11" s="172">
+      <c r="L11" s="118">
         <v>986782456.11000001</v>
       </c>
-      <c r="M11" s="172">
+      <c r="M11" s="118">
         <v>1070754819.23</v>
       </c>
-      <c r="N11" s="172">
+      <c r="N11" s="118">
         <v>83972363.120000005</v>
       </c>
-      <c r="O11" s="173">
+      <c r="O11" s="119">
         <v>8.51</v>
       </c>
-      <c r="P11" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="172">
+      <c r="P11" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="118">
         <v>-986782456.11000001</v>
       </c>
-      <c r="R11" s="173">
+      <c r="R11" s="119">
         <v>-100</v>
       </c>
-      <c r="S11" s="172">
+      <c r="S11" s="118">
         <v>-1070754819.23</v>
       </c>
-      <c r="T11" s="173">
+      <c r="T11" s="119">
         <v>-100</v>
       </c>
-      <c r="U11" s="172">
-        <v>0</v>
-      </c>
-      <c r="V11" s="173">
-        <v>0</v>
-      </c>
-      <c r="W11" s="172">
-        <v>0</v>
-      </c>
-      <c r="X11" s="173">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="172">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="173">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="172">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="169" customFormat="1">
-      <c r="A12" s="163">
+      <c r="U11" s="118">
+        <v>0</v>
+      </c>
+      <c r="V11" s="119">
+        <v>0</v>
+      </c>
+      <c r="W11" s="118">
+        <v>0</v>
+      </c>
+      <c r="X11" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="119">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="118">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="109">
         <v>4</v>
       </c>
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="164">
+      <c r="C12" s="110">
         <v>51110000</v>
       </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="174" t="s">
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="174"/>
-      <c r="I12" s="171">
+      <c r="H12" s="169"/>
+      <c r="I12" s="117">
         <f>C12</f>
         <v>51110000</v>
       </c>
-      <c r="J12" s="164" t="s">
+      <c r="J12" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="164">
+      <c r="K12" s="110">
         <v>4</v>
       </c>
-      <c r="L12" s="172">
+      <c r="L12" s="118">
         <v>719001866.75</v>
       </c>
-      <c r="M12" s="172">
+      <c r="M12" s="118">
         <v>782753358.24000001</v>
       </c>
-      <c r="N12" s="172">
+      <c r="N12" s="118">
         <v>63751491.490000002</v>
       </c>
-      <c r="O12" s="173">
+      <c r="O12" s="119">
         <v>8.8699999999999992</v>
       </c>
-      <c r="P12" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="172">
+      <c r="P12" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="118">
         <v>-719001866.75</v>
       </c>
-      <c r="R12" s="173">
+      <c r="R12" s="119">
         <v>-100</v>
       </c>
-      <c r="S12" s="172">
+      <c r="S12" s="118">
         <v>-782753358.24000001</v>
       </c>
-      <c r="T12" s="173">
+      <c r="T12" s="119">
         <v>-100</v>
       </c>
-      <c r="U12" s="172">
-        <v>0</v>
-      </c>
-      <c r="V12" s="173">
-        <v>0</v>
-      </c>
-      <c r="W12" s="172">
-        <v>0</v>
-      </c>
-      <c r="X12" s="173">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="172">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="173">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="172">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="169" customFormat="1">
-      <c r="A13" s="163">
+      <c r="U12" s="118">
+        <v>0</v>
+      </c>
+      <c r="V12" s="119">
+        <v>0</v>
+      </c>
+      <c r="W12" s="118">
+        <v>0</v>
+      </c>
+      <c r="X12" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="119">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="118">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="109">
         <v>5</v>
       </c>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="164">
+      <c r="C13" s="110">
         <v>51111010</v>
       </c>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170" t="s">
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="171">
+      <c r="I13" s="117">
         <f>C13</f>
         <v>51111010</v>
       </c>
-      <c r="J13" s="164" t="s">
+      <c r="J13" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="164">
+      <c r="K13" s="110">
         <v>5</v>
       </c>
-      <c r="L13" s="172">
+      <c r="L13" s="118">
         <v>719001866.75</v>
       </c>
-      <c r="M13" s="172">
+      <c r="M13" s="118">
         <v>782753358.24000001</v>
       </c>
-      <c r="N13" s="172">
+      <c r="N13" s="118">
         <v>63751491.490000002</v>
       </c>
-      <c r="O13" s="173">
+      <c r="O13" s="119">
         <v>8.8699999999999992</v>
       </c>
-      <c r="P13" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="172">
+      <c r="P13" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="118">
         <v>-719001866.75</v>
       </c>
-      <c r="R13" s="173">
+      <c r="R13" s="119">
         <v>-100</v>
       </c>
-      <c r="S13" s="172">
+      <c r="S13" s="118">
         <v>-782753358.24000001</v>
       </c>
-      <c r="T13" s="173">
+      <c r="T13" s="119">
         <v>-100</v>
       </c>
-      <c r="U13" s="172">
-        <v>0</v>
-      </c>
-      <c r="V13" s="173">
-        <v>0</v>
-      </c>
-      <c r="W13" s="172">
-        <v>0</v>
-      </c>
-      <c r="X13" s="173">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="172">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="173">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="172">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="U13" s="118">
+        <v>0</v>
+      </c>
+      <c r="V13" s="119">
+        <v>0</v>
+      </c>
+      <c r="W13" s="118">
+        <v>0</v>
+      </c>
+      <c r="X13" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="119">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="118">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="88"/>
       <c r="B14" s="89"/>
       <c r="C14" s="89"/>
@@ -3654,47 +3273,47 @@
       <c r="AA14" s="97"/>
       <c r="AB14" s="100"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>5</v>
       </c>
@@ -3706,15 +3325,15 @@
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:O4"/>
     <mergeCell ref="P4:AB4"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="U5:AB5"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="L4:O4"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
@@ -3729,27 +3348,27 @@
     <mergeCell ref="E10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:AB3000">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$K9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:AB3000">
-    <cfRule type="expression" dxfId="41" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$K9=4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:AB3000">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>$K9=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AB3000">
-    <cfRule type="expression" dxfId="39" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$K9=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A3000 I9:AB3000">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$A9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3763,15 +3382,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:M6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="5" hidden="1" customWidth="1"/>
@@ -3781,8 +3402,7 @@
     <col min="7" max="7" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="13.88671875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="13.88671875" style="7" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="13" customWidth="1"/>
     <col min="14" max="15" width="13.88671875" style="7" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" style="13" customWidth="1"/>
@@ -3799,17 +3419,17 @@
     <col min="27" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4">
+    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="106" t="str">
+      <c r="D1" s="130" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
       <c r="J1" s="25"/>
@@ -3830,15 +3450,15 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>2022</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
       <c r="J2" s="8"/>
@@ -3859,7 +3479,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16"/>
@@ -3885,134 +3505,134 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A4" s="111" t="s">
+    <row r="4" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="115" t="s">
+      <c r="D4" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="145"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="128" t="s">
+      <c r="I4" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="131" t="str">
+      <c r="J4" s="157" t="str">
         <f>"TAHUN " &amp; $B$2-1</f>
         <v>TAHUN 2021</v>
       </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="132" t="str">
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="158" t="str">
         <f>"Tahun " &amp;$B$2</f>
         <v>Tahun 2022</v>
       </c>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-    </row>
-    <row r="5" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="133" t="s">
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+    </row>
+    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="138"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="134" t="s">
+      <c r="K5" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="135"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="140" t="s">
+      <c r="L5" s="161"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="141" t="str">
+      <c r="O5" s="167" t="str">
         <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN " &amp; $B$2-1</f>
         <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN 2021</v>
       </c>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="127" t="s">
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-    </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="142" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="139"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142" t="s">
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="142"/>
-      <c r="S6" s="127" t="s">
+      <c r="R6" s="168"/>
+      <c r="S6" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127" t="s">
+      <c r="T6" s="153"/>
+      <c r="U6" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127" t="s">
+      <c r="V6" s="153"/>
+      <c r="W6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127" t="s">
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="127"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="Z6" s="153"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4074,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4102,8 +3722,8 @@
       <c r="Y8" s="63"/>
       <c r="Z8" s="66"/>
     </row>
-    <row r="9" spans="1:26" s="161" customFormat="1">
-      <c r="A9" s="160">
+    <row r="9" spans="1:26" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="106">
         <v>1</v>
       </c>
       <c r="B9" s="74" t="s">
@@ -4112,11 +3732,11 @@
       <c r="C9" s="74">
         <v>50000000</v>
       </c>
-      <c r="D9" s="158" t="s">
+      <c r="D9" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
       <c r="G9" s="73">
         <f>C9</f>
         <v>50000000</v>
@@ -4179,8 +3799,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="161" customFormat="1">
-      <c r="A10" s="160">
+    <row r="10" spans="1:26" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="106">
         <v>2</v>
       </c>
       <c r="B10" s="74" t="s">
@@ -4190,10 +3810,10 @@
         <v>51000000</v>
       </c>
       <c r="D10" s="68"/>
-      <c r="E10" s="159" t="s">
+      <c r="E10" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="159"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="73">
         <f t="shared" ref="G10:G11" si="0">C10</f>
         <v>51000000</v>
@@ -4256,8 +3876,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="161" customFormat="1">
-      <c r="A11" s="160">
+    <row r="11" spans="1:26" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="106">
         <v>3</v>
       </c>
       <c r="B11" s="74" t="s">
@@ -4333,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="88"/>
       <c r="B12" s="89"/>
       <c r="C12" s="89"/>
@@ -4359,34 +3979,34 @@
       <c r="W12" s="93"/>
       <c r="X12" s="93"/>
       <c r="Y12" s="93"/>
-      <c r="Z12" s="162"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="Z12" s="108"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I17" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>3</v>
       </c>
@@ -4419,17 +4039,17 @@
     <mergeCell ref="D4:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:Z3000">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$I9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A3000 G9:Z3000">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$A9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:Z3000">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$I9=2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4443,15 +4063,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="19" customWidth="1"/>
     <col min="2" max="2" width="7" style="5" hidden="1" customWidth="1"/>
@@ -4461,8 +4083,7 @@
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="13.88671875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="10" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="13.88671875" style="10" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" style="14" customWidth="1"/>
     <col min="16" max="17" width="13.88671875" style="10" customWidth="1"/>
     <col min="18" max="18" width="6.6640625" style="14" customWidth="1"/>
@@ -4479,19 +4100,19 @@
     <col min="29" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.4">
+    <row r="1" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="107" t="str">
+      <c r="D1" s="131" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
       <c r="L1" s="8"/>
@@ -4512,18 +4133,18 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="11"/>
     </row>
-    <row r="2" spans="1:28" ht="14.4">
+    <row r="2" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>2022</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
       <c r="J2" s="1"/>
       <c r="K2" s="3"/>
       <c r="L2" s="8"/>
@@ -4544,7 +4165,7 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="11"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="16"/>
@@ -4572,140 +4193,140 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="11"/>
     </row>
-    <row r="4" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A4" s="111" t="s">
+    <row r="4" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="115" t="s">
+      <c r="D4" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="128" t="s">
+      <c r="K4" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="131" t="str">
+      <c r="L4" s="157" t="str">
         <f>"TAHUN " &amp; $B$2-1</f>
         <v>TAHUN 2021</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="132" t="str">
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="158" t="str">
         <f>"Tahun " &amp;$B$2</f>
         <v>Tahun 2022</v>
       </c>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-    </row>
-    <row r="5" spans="1:28" ht="33.75" customHeight="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="133" t="s">
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+    </row>
+    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="138"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="134" t="s">
+      <c r="M5" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="135"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="140" t="s">
+      <c r="N5" s="161"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="141" t="str">
+      <c r="Q5" s="167" t="str">
         <f>"Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN "  &amp; $B$2-1</f>
         <v>Δ TERHADAP ANGGARAN &amp; PROGNOSA TAHUN 2021</v>
       </c>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="127" t="s">
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-    </row>
-    <row r="6" spans="1:28" ht="18" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="142" t="s">
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+    </row>
+    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="139"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142" t="s">
+      <c r="R6" s="168"/>
+      <c r="S6" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="142"/>
-      <c r="U6" s="127" t="s">
+      <c r="T6" s="168"/>
+      <c r="U6" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127" t="s">
+      <c r="V6" s="153"/>
+      <c r="W6" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127" t="s">
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127" t="s">
+      <c r="Z6" s="153"/>
+      <c r="AA6" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="127"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AB6" s="153"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4769,7 +4390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4799,402 +4420,402 @@
       <c r="AA8" s="63"/>
       <c r="AB8" s="65"/>
     </row>
-    <row r="9" spans="1:28" s="169" customFormat="1">
-      <c r="A9" s="163">
+    <row r="9" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="109">
         <v>1</v>
       </c>
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="164">
+      <c r="C9" s="110">
         <v>50000000</v>
       </c>
-      <c r="D9" s="175" t="s">
+      <c r="D9" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="165">
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="111">
         <f>C9</f>
         <v>50000000</v>
       </c>
-      <c r="J9" s="166" t="s">
+      <c r="J9" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="166">
+      <c r="K9" s="112">
         <v>1</v>
       </c>
-      <c r="L9" s="167">
+      <c r="L9" s="113">
         <v>77567389975.100006</v>
       </c>
-      <c r="M9" s="167">
+      <c r="M9" s="113">
         <v>81473580832.050003</v>
       </c>
-      <c r="N9" s="167">
+      <c r="N9" s="113">
         <v>3906190856.9499998</v>
       </c>
-      <c r="O9" s="168">
+      <c r="O9" s="114">
         <v>5.04</v>
       </c>
-      <c r="P9" s="167">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="167">
+      <c r="P9" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="113">
         <v>-77567389975.100006</v>
       </c>
-      <c r="R9" s="168">
+      <c r="R9" s="114">
         <v>-100</v>
       </c>
-      <c r="S9" s="167">
+      <c r="S9" s="113">
         <v>-81473580832.050003</v>
       </c>
-      <c r="T9" s="168">
+      <c r="T9" s="114">
         <v>-100</v>
       </c>
-      <c r="U9" s="167">
-        <v>0</v>
-      </c>
-      <c r="V9" s="168">
-        <v>0</v>
-      </c>
-      <c r="W9" s="167">
-        <v>0</v>
-      </c>
-      <c r="X9" s="168">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="167">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="168">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="167">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" s="169" customFormat="1">
-      <c r="A10" s="163">
+      <c r="U9" s="113">
+        <v>0</v>
+      </c>
+      <c r="V9" s="114">
+        <v>0</v>
+      </c>
+      <c r="W9" s="113">
+        <v>0</v>
+      </c>
+      <c r="X9" s="114">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="114">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="109">
         <v>2</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="164">
+      <c r="C10" s="110">
         <v>51000000</v>
       </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="176" t="s">
+      <c r="D10" s="116"/>
+      <c r="E10" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="171">
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="117">
         <f>C10</f>
         <v>51000000</v>
       </c>
-      <c r="J10" s="164" t="s">
+      <c r="J10" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="164">
+      <c r="K10" s="110">
         <v>2</v>
       </c>
-      <c r="L10" s="172">
+      <c r="L10" s="118">
         <v>986782456.11000001</v>
       </c>
-      <c r="M10" s="172">
+      <c r="M10" s="118">
         <v>1070754819.23</v>
       </c>
-      <c r="N10" s="172">
+      <c r="N10" s="118">
         <v>83972363.120000005</v>
       </c>
-      <c r="O10" s="173">
+      <c r="O10" s="119">
         <v>8.51</v>
       </c>
-      <c r="P10" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="172">
+      <c r="P10" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="118">
         <v>-986782456.11000001</v>
       </c>
-      <c r="R10" s="173">
+      <c r="R10" s="119">
         <v>-100</v>
       </c>
-      <c r="S10" s="172">
+      <c r="S10" s="118">
         <v>-1070754819.23</v>
       </c>
-      <c r="T10" s="173">
+      <c r="T10" s="119">
         <v>-100</v>
       </c>
-      <c r="U10" s="172">
-        <v>0</v>
-      </c>
-      <c r="V10" s="173">
-        <v>0</v>
-      </c>
-      <c r="W10" s="172">
-        <v>0</v>
-      </c>
-      <c r="X10" s="173">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="172">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="173">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="172">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="169" customFormat="1">
-      <c r="A11" s="163">
+      <c r="U10" s="118">
+        <v>0</v>
+      </c>
+      <c r="V10" s="119">
+        <v>0</v>
+      </c>
+      <c r="W10" s="118">
+        <v>0</v>
+      </c>
+      <c r="X10" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="119">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="118">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="109">
         <v>3</v>
       </c>
-      <c r="B11" s="164" t="s">
+      <c r="B11" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="164">
+      <c r="C11" s="110">
         <v>51100000</v>
       </c>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="174" t="s">
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="171">
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="117">
         <f>C11</f>
         <v>51100000</v>
       </c>
-      <c r="J11" s="164" t="s">
+      <c r="J11" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="164">
+      <c r="K11" s="110">
         <v>3</v>
       </c>
-      <c r="L11" s="172">
+      <c r="L11" s="118">
         <v>986782456.11000001</v>
       </c>
-      <c r="M11" s="172">
+      <c r="M11" s="118">
         <v>1070754819.23</v>
       </c>
-      <c r="N11" s="172">
+      <c r="N11" s="118">
         <v>83972363.120000005</v>
       </c>
-      <c r="O11" s="173">
+      <c r="O11" s="119">
         <v>8.51</v>
       </c>
-      <c r="P11" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="172">
+      <c r="P11" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="118">
         <v>-986782456.11000001</v>
       </c>
-      <c r="R11" s="173">
+      <c r="R11" s="119">
         <v>-100</v>
       </c>
-      <c r="S11" s="172">
+      <c r="S11" s="118">
         <v>-1070754819.23</v>
       </c>
-      <c r="T11" s="173">
+      <c r="T11" s="119">
         <v>-100</v>
       </c>
-      <c r="U11" s="172">
-        <v>0</v>
-      </c>
-      <c r="V11" s="173">
-        <v>0</v>
-      </c>
-      <c r="W11" s="172">
-        <v>0</v>
-      </c>
-      <c r="X11" s="173">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="172">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="173">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="172">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="169" customFormat="1">
-      <c r="A12" s="163">
+      <c r="U11" s="118">
+        <v>0</v>
+      </c>
+      <c r="V11" s="119">
+        <v>0</v>
+      </c>
+      <c r="W11" s="118">
+        <v>0</v>
+      </c>
+      <c r="X11" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="119">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="118">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="109">
         <v>4</v>
       </c>
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="164">
+      <c r="C12" s="110">
         <v>51110000</v>
       </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="174" t="s">
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="174"/>
-      <c r="I12" s="171">
+      <c r="H12" s="169"/>
+      <c r="I12" s="117">
         <f>C12</f>
         <v>51110000</v>
       </c>
-      <c r="J12" s="164" t="s">
+      <c r="J12" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="164">
+      <c r="K12" s="110">
         <v>4</v>
       </c>
-      <c r="L12" s="172">
+      <c r="L12" s="118">
         <v>719001866.75</v>
       </c>
-      <c r="M12" s="172">
+      <c r="M12" s="118">
         <v>782753358.24000001</v>
       </c>
-      <c r="N12" s="172">
+      <c r="N12" s="118">
         <v>63751491.490000002</v>
       </c>
-      <c r="O12" s="173">
+      <c r="O12" s="119">
         <v>8.8699999999999992</v>
       </c>
-      <c r="P12" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="172">
+      <c r="P12" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="118">
         <v>-719001866.75</v>
       </c>
-      <c r="R12" s="173">
+      <c r="R12" s="119">
         <v>-100</v>
       </c>
-      <c r="S12" s="172">
+      <c r="S12" s="118">
         <v>-782753358.24000001</v>
       </c>
-      <c r="T12" s="173">
+      <c r="T12" s="119">
         <v>-100</v>
       </c>
-      <c r="U12" s="172">
-        <v>0</v>
-      </c>
-      <c r="V12" s="173">
-        <v>0</v>
-      </c>
-      <c r="W12" s="172">
-        <v>0</v>
-      </c>
-      <c r="X12" s="173">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="172">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="173">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="172">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="169" customFormat="1">
-      <c r="A13" s="163">
+      <c r="U12" s="118">
+        <v>0</v>
+      </c>
+      <c r="V12" s="119">
+        <v>0</v>
+      </c>
+      <c r="W12" s="118">
+        <v>0</v>
+      </c>
+      <c r="X12" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="119">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="118">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="109">
         <v>5</v>
       </c>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="164">
+      <c r="C13" s="110">
         <v>51111010</v>
       </c>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170" t="s">
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="171">
+      <c r="I13" s="117">
         <f>C13</f>
         <v>51111010</v>
       </c>
-      <c r="J13" s="164" t="s">
+      <c r="J13" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="164">
+      <c r="K13" s="110">
         <v>5</v>
       </c>
-      <c r="L13" s="172">
+      <c r="L13" s="118">
         <v>719001866.75</v>
       </c>
-      <c r="M13" s="172">
+      <c r="M13" s="118">
         <v>782753358.24000001</v>
       </c>
-      <c r="N13" s="172">
+      <c r="N13" s="118">
         <v>63751491.490000002</v>
       </c>
-      <c r="O13" s="173">
+      <c r="O13" s="119">
         <v>8.8699999999999992</v>
       </c>
-      <c r="P13" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="172">
+      <c r="P13" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="118">
         <v>-719001866.75</v>
       </c>
-      <c r="R13" s="173">
+      <c r="R13" s="119">
         <v>-100</v>
       </c>
-      <c r="S13" s="172">
+      <c r="S13" s="118">
         <v>-782753358.24000001</v>
       </c>
-      <c r="T13" s="173">
+      <c r="T13" s="119">
         <v>-100</v>
       </c>
-      <c r="U13" s="172">
-        <v>0</v>
-      </c>
-      <c r="V13" s="173">
-        <v>0</v>
-      </c>
-      <c r="W13" s="172">
-        <v>0</v>
-      </c>
-      <c r="X13" s="173">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="172">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="173">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="172">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="U13" s="118">
+        <v>0</v>
+      </c>
+      <c r="V13" s="119">
+        <v>0</v>
+      </c>
+      <c r="W13" s="118">
+        <v>0</v>
+      </c>
+      <c r="X13" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="119">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="118">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="88"/>
       <c r="B14" s="89"/>
       <c r="C14" s="89"/>
@@ -5224,47 +4845,47 @@
       <c r="AA14" s="97"/>
       <c r="AB14" s="100"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>5</v>
       </c>
@@ -5276,11 +4897,6 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="K4:K6"/>
@@ -5291,35 +4907,40 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="U5:AB5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:H6"/>
+    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:AB3000">
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>$K9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:AB3000">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$K9=4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:AB3000">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$K9=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AB3000">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$K9=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A3000 I9:AB3000">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$A9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5333,15 +4954,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0066FF"/>
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H3" sqref="H1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="19" customWidth="1"/>
     <col min="2" max="2" width="7" style="5" hidden="1" customWidth="1"/>
@@ -5367,7 +4990,7 @@
     <col min="26" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.4" customHeight="1">
+    <row r="1" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
@@ -5375,16 +4998,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="106" t="str">
+      <c r="G1" s="130" t="str">
         <f>"LAPORAN PENYUSUNAN ANGGARAN TAHUN " &amp; $B$2</f>
         <v>LAPORAN PENYUSUNAN ANGGARAN TAHUN 2022</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
       <c r="N1" s="28"/>
       <c r="O1" s="29"/>
       <c r="P1" s="33"/>
@@ -5398,7 +5021,7 @@
       <c r="X1" s="33"/>
       <c r="Y1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.4" customHeight="1">
+    <row r="2" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>2022</v>
       </c>
@@ -5406,15 +5029,15 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="33"/>
@@ -5428,7 +5051,7 @@
       <c r="X2" s="33"/>
       <c r="Y2" s="11"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5454,61 +5077,61 @@
       <c r="X3" s="33"/>
       <c r="Y3" s="11"/>
     </row>
-    <row r="4" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A4" s="111" t="s">
+    <row r="4" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="115" t="s">
+      <c r="D4" s="181"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="149"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="131" t="s">
+      <c r="H4" s="181"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="176"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="132" t="s">
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-    </row>
-    <row r="5" spans="1:25" ht="18" customHeight="1">
-      <c r="A5" s="113"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="148"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+    </row>
+    <row r="5" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="139"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="180"/>
       <c r="N5" s="32" t="s">
         <v>67</v>
       </c>
@@ -5521,24 +5144,24 @@
       <c r="Q5" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="127" t="s">
+      <c r="R5" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127" t="s">
+      <c r="S5" s="153"/>
+      <c r="T5" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127" t="s">
+      <c r="U5" s="153"/>
+      <c r="V5" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127" t="s">
+      <c r="W5" s="153"/>
+      <c r="X5" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="127"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Y5" s="153"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5589,7 +5212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="69"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5608,285 +5231,285 @@
       <c r="P7" s="76"/>
       <c r="Q7" s="76"/>
       <c r="R7" s="77"/>
-      <c r="S7" s="185"/>
+      <c r="S7" s="128"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="185"/>
+      <c r="U7" s="128"/>
       <c r="V7" s="77"/>
-      <c r="W7" s="185"/>
+      <c r="W7" s="128"/>
       <c r="X7" s="77"/>
-      <c r="Y7" s="185"/>
-    </row>
-    <row r="8" spans="1:25" s="183" customFormat="1">
-      <c r="A8" s="177">
+      <c r="Y7" s="128"/>
+    </row>
+    <row r="8" spans="1:25" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="120">
         <v>1</v>
       </c>
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="178">
+      <c r="C8" s="121">
         <v>61217011</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="178" t="s">
+      <c r="E8" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179">
+      <c r="F8" s="121"/>
+      <c r="G8" s="122">
         <v>61217011</v>
       </c>
-      <c r="H8" s="178">
+      <c r="H8" s="121">
         <v>1</v>
       </c>
-      <c r="I8" s="178"/>
-      <c r="J8" s="176" t="s">
+      <c r="I8" s="121"/>
+      <c r="J8" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="176"/>
-      <c r="N8" s="180">
-        <v>0</v>
-      </c>
-      <c r="O8" s="180">
-        <v>0</v>
-      </c>
-      <c r="P8" s="181">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="181">
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="123">
+        <v>0</v>
+      </c>
+      <c r="O8" s="123">
+        <v>0</v>
+      </c>
+      <c r="P8" s="124">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="124">
         <v>72000000</v>
       </c>
-      <c r="R8" s="181">
+      <c r="R8" s="124">
         <v>36000000</v>
       </c>
-      <c r="S8" s="182">
+      <c r="S8" s="125">
         <v>50</v>
       </c>
-      <c r="T8" s="181">
+      <c r="T8" s="124">
         <v>36000000</v>
       </c>
-      <c r="U8" s="182">
+      <c r="U8" s="125">
         <v>50</v>
       </c>
-      <c r="V8" s="181">
-        <v>0</v>
-      </c>
-      <c r="W8" s="182">
-        <v>0</v>
-      </c>
-      <c r="X8" s="181">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="183" customFormat="1">
-      <c r="A9" s="177">
+      <c r="V8" s="124">
+        <v>0</v>
+      </c>
+      <c r="W8" s="125">
+        <v>0</v>
+      </c>
+      <c r="X8" s="124">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="120">
         <v>2</v>
       </c>
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="178">
+      <c r="C9" s="121">
         <v>61217011</v>
       </c>
-      <c r="D9" s="178" t="s">
+      <c r="D9" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="178"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="178">
+      <c r="F9" s="121"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="121">
         <v>2</v>
       </c>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="176" t="s">
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="176"/>
-      <c r="M9" s="176"/>
-      <c r="N9" s="180">
-        <v>0</v>
-      </c>
-      <c r="O9" s="180">
-        <v>0</v>
-      </c>
-      <c r="P9" s="181">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="181">
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="123">
+        <v>0</v>
+      </c>
+      <c r="O9" s="123">
+        <v>0</v>
+      </c>
+      <c r="P9" s="124">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="124">
         <v>72000000</v>
       </c>
-      <c r="R9" s="181">
+      <c r="R9" s="124">
         <v>36000000</v>
       </c>
-      <c r="S9" s="182">
+      <c r="S9" s="125">
         <v>50</v>
       </c>
-      <c r="T9" s="181">
+      <c r="T9" s="124">
         <v>36000000</v>
       </c>
-      <c r="U9" s="182">
+      <c r="U9" s="125">
         <v>50</v>
       </c>
-      <c r="V9" s="181">
-        <v>0</v>
-      </c>
-      <c r="W9" s="182">
-        <v>0</v>
-      </c>
-      <c r="X9" s="181">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="183" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A10" s="177">
+      <c r="V9" s="124">
+        <v>0</v>
+      </c>
+      <c r="W9" s="125">
+        <v>0</v>
+      </c>
+      <c r="X9" s="124">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="126" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="120">
         <v>3</v>
       </c>
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="178">
+      <c r="C10" s="121">
         <v>61217011</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="D10" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="178" t="s">
+      <c r="F10" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="179"/>
-      <c r="H10" s="178">
+      <c r="G10" s="122"/>
+      <c r="H10" s="121">
         <v>3</v>
       </c>
-      <c r="I10" s="178">
-        <v>0</v>
-      </c>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="176" t="s">
+      <c r="I10" s="121">
+        <v>0</v>
+      </c>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="176"/>
-      <c r="N10" s="180">
-        <v>0</v>
-      </c>
-      <c r="O10" s="180">
-        <v>0</v>
-      </c>
-      <c r="P10" s="181">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="181">
+      <c r="M10" s="171"/>
+      <c r="N10" s="123">
+        <v>0</v>
+      </c>
+      <c r="O10" s="123">
+        <v>0</v>
+      </c>
+      <c r="P10" s="124">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="124">
         <v>72000000</v>
       </c>
-      <c r="R10" s="181">
+      <c r="R10" s="124">
         <v>36000000</v>
       </c>
-      <c r="S10" s="182">
+      <c r="S10" s="125">
         <v>50</v>
       </c>
-      <c r="T10" s="181">
+      <c r="T10" s="124">
         <v>36000000</v>
       </c>
-      <c r="U10" s="182">
+      <c r="U10" s="125">
         <v>50</v>
       </c>
-      <c r="V10" s="181">
-        <v>0</v>
-      </c>
-      <c r="W10" s="182">
-        <v>0</v>
-      </c>
-      <c r="X10" s="181">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="183" customFormat="1">
-      <c r="A11" s="177">
+      <c r="V10" s="124">
+        <v>0</v>
+      </c>
+      <c r="W10" s="125">
+        <v>0</v>
+      </c>
+      <c r="X10" s="124">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120">
         <v>4</v>
       </c>
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="178">
+      <c r="C11" s="121">
         <v>61217011</v>
       </c>
-      <c r="D11" s="178" t="s">
+      <c r="D11" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="178" t="s">
+      <c r="E11" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="178" t="s">
+      <c r="F11" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="179"/>
-      <c r="H11" s="178">
+      <c r="G11" s="122"/>
+      <c r="H11" s="121">
         <v>4</v>
       </c>
-      <c r="I11" s="178">
+      <c r="I11" s="121">
         <v>1</v>
       </c>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="184" t="s">
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="180">
+      <c r="N11" s="123">
         <v>1</v>
       </c>
-      <c r="O11" s="180">
+      <c r="O11" s="123">
         <v>6</v>
       </c>
-      <c r="P11" s="181">
+      <c r="P11" s="124">
         <v>2000000</v>
       </c>
-      <c r="Q11" s="181">
+      <c r="Q11" s="124">
         <v>12000000</v>
       </c>
-      <c r="R11" s="181">
+      <c r="R11" s="124">
         <v>6000000</v>
       </c>
-      <c r="S11" s="182">
+      <c r="S11" s="125">
         <v>50</v>
       </c>
-      <c r="T11" s="181">
+      <c r="T11" s="124">
         <v>6000000</v>
       </c>
-      <c r="U11" s="182">
+      <c r="U11" s="125">
         <v>50</v>
       </c>
-      <c r="V11" s="181">
-        <v>0</v>
-      </c>
-      <c r="W11" s="182">
-        <v>0</v>
-      </c>
-      <c r="X11" s="181">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="V11" s="124">
+        <v>0</v>
+      </c>
+      <c r="W11" s="125">
+        <v>0</v>
+      </c>
+      <c r="X11" s="124">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="88"/>
       <c r="B12" s="89"/>
       <c r="C12" s="89"/>
@@ -5905,15 +5528,15 @@
       <c r="P12" s="104"/>
       <c r="Q12" s="104"/>
       <c r="R12" s="104"/>
-      <c r="S12" s="186"/>
+      <c r="S12" s="129"/>
       <c r="T12" s="105"/>
-      <c r="U12" s="186"/>
+      <c r="U12" s="129"/>
       <c r="V12" s="105"/>
-      <c r="W12" s="186"/>
+      <c r="W12" s="129"/>
       <c r="X12" s="105"/>
-      <c r="Y12" s="186"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Y12" s="129"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M13" s="51"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
@@ -5928,7 +5551,7 @@
       <c r="X13" s="37"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M14" s="51"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
@@ -5943,7 +5566,7 @@
       <c r="X14" s="37"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M15" s="51"/>
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
@@ -5958,7 +5581,7 @@
       <c r="X15" s="37"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M16" s="51"/>
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
@@ -5973,7 +5596,7 @@
       <c r="X16" s="37"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M17" s="51"/>
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
@@ -5988,7 +5611,7 @@
       <c r="X17" s="37"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M18" s="51"/>
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
@@ -6003,22 +5626,22 @@
       <c r="X18" s="37"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>4</v>
       </c>
@@ -6048,22 +5671,22 @@
     <mergeCell ref="K9:M9"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:Y3000">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$H8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:Y3000">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$H8=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Y3000">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H8=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:G3000 N8:Y3000">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6077,7 +5700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -6087,7 +5710,7 @@
       <selection activeCell="N1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="40" style="52" customWidth="1"/>
@@ -6107,48 +5730,48 @@
     <col min="16" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="36" customHeight="1">
-      <c r="B1" s="157" t="s">
+    <row r="1" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="N1" s="154" t="s">
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="N1" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="154"/>
-    </row>
-    <row r="3" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B3" s="156" t="s">
+      <c r="O1" s="186"/>
+    </row>
+    <row r="3" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="E3" s="156" t="s">
+      <c r="C3" s="188"/>
+      <c r="E3" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="H3" s="156" t="s">
+      <c r="F3" s="188"/>
+      <c r="H3" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="156"/>
-      <c r="K3" s="156" t="s">
+      <c r="I3" s="188"/>
+      <c r="K3" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="156"/>
-      <c r="N3" s="155" t="s">
+      <c r="L3" s="188"/>
+      <c r="N3" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="155"/>
-    </row>
-    <row r="4" spans="2:17">
+      <c r="O3" s="187"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
         <v>101</v>
       </c>
@@ -6180,7 +5803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="43.2">
+    <row r="5" spans="2:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
         <v>102</v>
       </c>
@@ -6208,7 +5831,7 @@
       <c r="N5" s="42"/>
       <c r="O5" s="82"/>
     </row>
-    <row r="6" spans="2:17" ht="28.8">
+    <row r="6" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>59</v>
       </c>
@@ -6240,7 +5863,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>82</v>
       </c>
@@ -6272,7 +5895,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>11</v>
       </c>
@@ -6304,7 +5927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>12</v>
       </c>
@@ -6336,7 +5959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>13</v>
       </c>
@@ -6368,7 +5991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>13</v>
       </c>
@@ -6400,7 +6023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>13</v>
       </c>
@@ -6432,7 +6055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E13" s="21" t="s">
         <v>13</v>
       </c>
@@ -6447,7 +6070,7 @@
       </c>
       <c r="N13" s="47"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
         <v>14</v>
       </c>
@@ -6479,7 +6102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
         <v>15</v>
       </c>
@@ -6499,7 +6122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="52" t="s">
         <v>16</v>
       </c>
@@ -6534,7 +6157,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="52" t="s">
         <v>17</v>
       </c>
@@ -6566,7 +6189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="52" t="s">
         <v>31</v>
       </c>
@@ -6598,7 +6221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="52" t="s">
         <v>18</v>
       </c>
@@ -6630,7 +6253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="52" t="s">
         <v>19</v>
       </c>
@@ -6662,7 +6285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="52" t="s">
         <v>32</v>
       </c>
@@ -6694,7 +6317,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
         <v>33</v>
       </c>
@@ -6726,7 +6349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
         <v>34</v>
       </c>
@@ -6758,7 +6381,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
         <v>35</v>
       </c>
@@ -6790,7 +6413,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="54" t="s">
         <v>92</v>
       </c>
@@ -6822,7 +6445,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="54" t="s">
         <v>96</v>
       </c>
@@ -6854,7 +6477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="54" t="s">
         <v>93</v>
       </c>
@@ -6886,7 +6509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="54" t="s">
         <v>97</v>
       </c>
@@ -6918,7 +6541,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="54" t="s">
         <v>94</v>
       </c>
@@ -6950,7 +6573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="54" t="s">
         <v>98</v>
       </c>
@@ -6982,7 +6605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="54" t="s">
         <v>95</v>
       </c>
@@ -7014,7 +6637,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="54" t="s">
         <v>99</v>
       </c>
@@ -7042,7 +6665,7 @@
       <c r="N32" s="84"/>
       <c r="O32" s="85"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="86"/>
       <c r="C33" s="87"/>
       <c r="E33" s="47" t="s">
@@ -7060,7 +6683,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E34" s="47" t="s">
         <v>99</v>
       </c>
@@ -7074,13 +6697,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E35" s="84"/>
       <c r="F35" s="85"/>
       <c r="K35" s="84"/>
       <c r="L35" s="85"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F37" s="26"/>
     </row>
   </sheetData>
